--- a/test_物件管理/test_ホワイトボート_問い合わせ履歴.xlsx
+++ b/test_物件管理/test_ホワイトボート_問い合わせ履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="574">
   <si>
     <t>URL:</t>
   </si>
@@ -1215,15 +1215,7 @@
     <t>看板</t>
   </si>
   <si>
-    <t>看板</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>知人紹介</t>
-  </si>
-  <si>
-    <t>知人紹介</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>id_created_user</t>
@@ -1586,13 +1578,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>SHOT</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ一覧表示</t>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2066,6 +2051,10 @@
   <si>
     <t>002-005-005</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3050,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3061,7 +3050,7 @@
         <v>181</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="102" customFormat="1" ht="14.25">
@@ -3069,7 +3058,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="102" customFormat="1" ht="14.25">
@@ -3077,7 +3066,7 @@
         <v>181</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="102" customFormat="1" ht="14.25">
@@ -3085,7 +3074,7 @@
         <v>181</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="102" customFormat="1" ht="14.25">
@@ -3093,7 +3082,7 @@
         <v>181</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25">
@@ -3101,7 +3090,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25">
@@ -3109,7 +3098,7 @@
         <v>181</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25">
@@ -3125,7 +3114,7 @@
         <v>181</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
@@ -3133,7 +3122,7 @@
         <v>181</v>
       </c>
       <c r="B10" s="116" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
@@ -3141,7 +3130,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25">
@@ -3149,7 +3138,7 @@
         <v>181</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25">
@@ -3157,7 +3146,7 @@
         <v>181</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
@@ -3181,7 +3170,7 @@
         <v>181</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
@@ -3189,7 +3178,7 @@
         <v>181</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
@@ -3205,7 +3194,7 @@
         <v>181</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25">
@@ -3213,7 +3202,7 @@
         <v>181</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25">
@@ -3221,7 +3210,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
@@ -3229,7 +3218,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
@@ -3237,7 +3226,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25">
@@ -3245,7 +3234,7 @@
         <v>181</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25">
@@ -3253,7 +3242,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25">
@@ -3261,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
@@ -3269,7 +3258,7 @@
         <v>181</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25">
@@ -3277,7 +3266,7 @@
         <v>181</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25">
@@ -3285,7 +3274,7 @@
         <v>181</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25">
@@ -3293,7 +3282,7 @@
         <v>181</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25">
@@ -3301,7 +3290,7 @@
         <v>181</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25">
@@ -3309,7 +3298,7 @@
         <v>181</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:75" ht="14.25">
@@ -3317,7 +3306,7 @@
         <v>181</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:75" ht="14.25">
@@ -3325,7 +3314,7 @@
         <v>181</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:75" ht="14.25">
@@ -3333,7 +3322,7 @@
         <v>181</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:75" ht="14.25">
@@ -3341,7 +3330,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:75" ht="14.25">
@@ -3349,7 +3338,7 @@
         <v>181</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:75" ht="14.25">
@@ -3357,7 +3346,7 @@
         <v>181</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:75" ht="14.25">
@@ -3527,7 +3516,7 @@
         <v>181</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C42" s="116"/>
       <c r="D42" s="116"/>
@@ -3537,7 +3526,7 @@
         <v>181</v>
       </c>
       <c r="B43" s="115" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D43" s="116"/>
     </row>
@@ -3546,7 +3535,7 @@
         <v>181</v>
       </c>
       <c r="B44" s="115" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C44" s="116"/>
       <c r="D44" s="116"/>
@@ -3556,7 +3545,7 @@
         <v>181</v>
       </c>
       <c r="B45" s="114" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" s="116"/>
       <c r="D45" s="116"/>
@@ -4024,7 +4013,7 @@
         <v>123</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="36" t="s">
@@ -4043,7 +4032,7 @@
         <v>125</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O52" s="36" t="s">
         <v>192</v>
@@ -4218,7 +4207,7 @@
         <v>192</v>
       </c>
       <c r="BU52" s="112" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="BV52" s="35">
         <v>1</v>
@@ -4253,7 +4242,7 @@
         <v>78</v>
       </c>
       <c r="K53" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>79</v>
@@ -4437,7 +4426,7 @@
         <v>192</v>
       </c>
       <c r="BU53" s="112" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="BV53" s="35">
         <v>3</v>
@@ -4462,7 +4451,7 @@
         <v>133</v>
       </c>
       <c r="G54" s="53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="36" t="s">
@@ -4478,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="M54" s="53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N54" s="35" t="s">
         <v>136</v>
@@ -4656,7 +4645,7 @@
         <v>192</v>
       </c>
       <c r="BU54" s="112" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="BV54" s="35">
         <v>1</v>
@@ -4681,7 +4670,7 @@
         <v>139</v>
       </c>
       <c r="G55" s="105" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="36" t="s">
@@ -4697,7 +4686,7 @@
         <v>79</v>
       </c>
       <c r="M55" s="105" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N55" s="35" t="s">
         <v>141</v>
@@ -4875,7 +4864,7 @@
         <v>192</v>
       </c>
       <c r="BU55" s="112" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BV55" s="35">
         <v>1</v>
@@ -5094,7 +5083,7 @@
         <v>192</v>
       </c>
       <c r="BU56" s="112" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="BV56" s="35">
         <v>1</v>
@@ -5119,7 +5108,7 @@
         <v>149</v>
       </c>
       <c r="G57" s="70" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="36" t="s">
@@ -5313,7 +5302,7 @@
         <v>192</v>
       </c>
       <c r="BU57" s="112" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="BV57" s="35">
         <v>1</v>
@@ -6743,7 +6732,7 @@
     <row r="77" spans="1:75">
       <c r="A77" s="37"/>
       <c r="B77" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="41"/>
@@ -7833,12 +7822,12 @@
     <row r="87" spans="1:75" ht="14.25">
       <c r="A87" s="38"/>
       <c r="B87" s="46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:75">
       <c r="B88" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C88" s="43"/>
       <c r="D88" s="43"/>
@@ -7863,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:75">
@@ -7883,7 +7872,7 @@
         <v>192</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H90" s="35" t="s">
         <v>244</v>
@@ -7950,7 +7939,7 @@
         <v>192</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H93" s="35"/>
     </row>
@@ -7971,13 +7960,13 @@
         <v>192</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:75">
       <c r="B95" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C95" s="44" t="s">
         <v>89</v>
@@ -7992,13 +7981,13 @@
         <v>192</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:75">
       <c r="B96" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C96" s="44" t="s">
         <v>91</v>
@@ -8013,7 +8002,7 @@
         <v>192</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H96" s="35"/>
     </row>
@@ -8026,12 +8015,12 @@
     <row r="99" spans="1:9" ht="14.25">
       <c r="A99" s="38"/>
       <c r="B99" s="46" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="B100" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15">
@@ -8058,7 +8047,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="B102" s="44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C102" s="44" t="s">
         <v>89</v>
@@ -8073,7 +8062,7 @@
         <v>192</v>
       </c>
       <c r="G102" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -8093,7 +8082,7 @@
         <v>192</v>
       </c>
       <c r="G103" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8113,7 +8102,7 @@
         <v>192</v>
       </c>
       <c r="G104" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -8133,7 +8122,7 @@
         <v>192</v>
       </c>
       <c r="G105" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8153,7 +8142,7 @@
         <v>192</v>
       </c>
       <c r="G106" s="44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8173,7 +8162,7 @@
         <v>192</v>
       </c>
       <c r="G107" s="44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -8193,7 +8182,7 @@
         <v>192</v>
       </c>
       <c r="G108" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -8213,7 +8202,7 @@
         <v>192</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15">
@@ -8233,7 +8222,7 @@
         <v>192</v>
       </c>
       <c r="G110" s="44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -8253,7 +8242,7 @@
         <v>192</v>
       </c>
       <c r="G111" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -8270,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8282,12 +8271,12 @@
         <v>86</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="80" customFormat="1" ht="12">
       <c r="B3" s="83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>87</v>
@@ -8398,7 +8387,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D5" s="105" t="s">
         <v>180</v>
@@ -8410,25 +8399,25 @@
         <v>192</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H5" s="105" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J5" s="105" t="s">
         <v>259</v>
       </c>
       <c r="K5" s="105" t="s">
+        <v>428</v>
+      </c>
+      <c r="L5" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" s="105" t="s">
         <v>430</v>
-      </c>
-      <c r="L5" s="105" t="s">
-        <v>431</v>
-      </c>
-      <c r="M5" s="105" t="s">
-        <v>432</v>
       </c>
       <c r="N5" s="105" t="s">
         <v>169</v>
@@ -8458,7 +8447,7 @@
         <v>77</v>
       </c>
       <c r="W5" s="105" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X5" s="99" t="s">
         <v>192</v>
@@ -8466,17 +8455,17 @@
       <c r="Y5" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" s="105" t="s">
-        <v>248</v>
+      <c r="Z5" s="112" t="s">
+        <v>259</v>
       </c>
       <c r="AA5" s="105" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AB5" s="105" t="s">
         <v>249</v>
       </c>
       <c r="AC5" s="105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD5" s="99" t="s">
         <v>192</v>
@@ -8485,7 +8474,7 @@
         <v>135</v>
       </c>
       <c r="AF5" s="105" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG5" s="101"/>
       <c r="AH5" s="101"/>
@@ -8533,10 +8522,10 @@
     <row r="6" spans="1:74" s="102" customFormat="1">
       <c r="A6" s="100"/>
       <c r="B6" s="105" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" s="105" t="s">
         <v>180</v>
@@ -8548,13 +8537,13 @@
         <v>90</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H6" s="105" t="s">
         <v>260</v>
       </c>
       <c r="I6" s="105" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J6" s="99" t="s">
         <v>192</v>
@@ -8566,7 +8555,7 @@
         <v>90</v>
       </c>
       <c r="M6" s="105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N6" s="99" t="s">
         <v>192</v>
@@ -8604,8 +8593,8 @@
       <c r="Y6" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="Z6" s="105" t="s">
-        <v>248</v>
+      <c r="Z6" s="112" t="s">
+        <v>200</v>
       </c>
       <c r="AA6" s="99" t="s">
         <v>90</v>
@@ -8671,10 +8660,10 @@
     <row r="7" spans="1:74" s="102" customFormat="1">
       <c r="A7" s="100"/>
       <c r="B7" s="105" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="105" t="s">
         <v>180</v>
@@ -8686,7 +8675,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="105" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>259</v>
@@ -8704,7 +8693,7 @@
         <v>90</v>
       </c>
       <c r="M7" s="105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N7" s="99" t="s">
         <v>192</v>
@@ -8742,8 +8731,8 @@
       <c r="Y7" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="Z7" s="105" t="s">
-        <v>248</v>
+      <c r="Z7" s="112" t="s">
+        <v>259</v>
       </c>
       <c r="AA7" s="99" t="s">
         <v>90</v>
@@ -8809,10 +8798,10 @@
     <row r="8" spans="1:74" s="102" customFormat="1">
       <c r="A8" s="100"/>
       <c r="B8" s="105" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>180</v>
@@ -8824,13 +8813,13 @@
         <v>192</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H8" s="105" t="s">
         <v>260</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J8" s="105" t="s">
         <v>249</v>
@@ -8848,13 +8837,13 @@
         <v>254</v>
       </c>
       <c r="O8" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="P8" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="105" t="s">
         <v>401</v>
-      </c>
-      <c r="P8" s="105" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q8" s="105" t="s">
-        <v>403</v>
       </c>
       <c r="R8" s="105" t="s">
         <v>207</v>
@@ -8880,8 +8869,8 @@
       <c r="Y8" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="Z8" s="105" t="s">
-        <v>248</v>
+      <c r="Z8" s="112" t="s">
+        <v>259</v>
       </c>
       <c r="AA8" s="99" t="s">
         <v>90</v>
@@ -8890,7 +8879,7 @@
         <v>90</v>
       </c>
       <c r="AC8" s="105" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AD8" s="99" t="s">
         <v>90</v>
@@ -8899,7 +8888,7 @@
         <v>90</v>
       </c>
       <c r="AF8" s="105" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG8" s="101"/>
       <c r="AH8" s="101"/>
@@ -8950,50 +8939,50 @@
         <v>201</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D9" s="112" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="110" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F9" s="108" t="s">
         <v>192</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H9" s="110" t="s">
         <v>271</v>
       </c>
       <c r="I9" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="J9" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="M9" s="110" t="s">
+        <v>378</v>
+      </c>
+      <c r="N9" s="110" t="s">
+        <v>524</v>
+      </c>
+      <c r="O9" s="110" t="s">
+        <v>525</v>
+      </c>
+      <c r="P9" s="110" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q9" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="J9" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="K9" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="110" t="s">
-        <v>378</v>
-      </c>
-      <c r="M9" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="N9" s="110" t="s">
-        <v>528</v>
-      </c>
-      <c r="O9" s="110" t="s">
-        <v>529</v>
-      </c>
-      <c r="P9" s="110" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q9" s="110" t="s">
-        <v>531</v>
-      </c>
       <c r="R9" s="108" t="s">
         <v>192</v>
       </c>
@@ -9004,22 +8993,22 @@
         <v>192</v>
       </c>
       <c r="U9" s="110" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="V9" s="110" t="s">
         <v>200</v>
       </c>
       <c r="W9" s="110" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="X9" s="108" t="s">
         <v>192</v>
       </c>
       <c r="Y9" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z9" s="110" t="s">
-        <v>447</v>
+        <v>528</v>
+      </c>
+      <c r="Z9" s="112" t="s">
+        <v>200</v>
       </c>
       <c r="AA9" s="108" t="s">
         <v>90</v>
@@ -9034,7 +9023,7 @@
         <v>90</v>
       </c>
       <c r="AE9" s="110" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF9" s="108" t="s">
         <v>90</v>
@@ -9088,7 +9077,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="100"/>
@@ -9163,7 +9152,7 @@
     </row>
     <row r="12" spans="1:74" s="80" customFormat="1" ht="12">
       <c r="B12" s="83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:74" s="80" customFormat="1" ht="12">
@@ -9171,10 +9160,10 @@
         <v>256</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:74" s="80" customFormat="1" ht="12">
@@ -9185,12 +9174,12 @@
         <v>271</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:74" s="102" customFormat="1">
       <c r="B15" s="112" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>201</v>
@@ -9201,13 +9190,13 @@
     </row>
     <row r="16" spans="1:74" s="102" customFormat="1">
       <c r="B16" s="112" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C16" s="112" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" s="111" customFormat="1" ht="12"/>
@@ -9221,8 +9210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9266,7 +9255,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="75" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>250</v>
@@ -9281,7 +9270,7 @@
         <v>253</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K5" s="75"/>
       <c r="L5" s="75"/>
@@ -9289,16 +9278,16 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="75" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>274</v>
@@ -9309,11 +9298,11 @@
     </row>
     <row r="7" spans="2:13" s="9" customFormat="1">
       <c r="B7" s="75" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="75" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E7" s="75"/>
       <c r="F7" s="18"/>
@@ -9328,17 +9317,17 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="75" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="75" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>275</v>
@@ -9349,17 +9338,17 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="75" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="75" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>276</v>
@@ -9412,10 +9401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9464,7 +9453,7 @@
         <v>325</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>304</v>
@@ -9479,7 +9468,7 @@
         <v>326</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>305</v>
@@ -9510,7 +9499,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>302</v>
@@ -9525,7 +9514,7 @@
         <v>329</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>318</v>
@@ -9540,10 +9529,10 @@
         <v>330</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -9554,7 +9543,7 @@
         <v>331</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>308</v>
@@ -9582,7 +9571,7 @@
         <v>333</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>317</v>
@@ -9610,7 +9599,7 @@
         <v>335</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>312</v>
@@ -9621,10 +9610,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>313</v>
@@ -9638,7 +9627,7 @@
         <v>336</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>303</v>
@@ -9652,10 +9641,10 @@
         <v>337</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
@@ -9666,10 +9655,10 @@
         <v>338</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25">
@@ -9778,10 +9767,10 @@
         <v>346</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
@@ -9789,10 +9778,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>311</v>
@@ -9871,7 +9860,7 @@
         <v>325</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D44" s="49" t="s">
         <v>304</v>
@@ -9886,7 +9875,7 @@
         <v>326</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D45" s="49" t="s">
         <v>305</v>
@@ -9901,7 +9890,7 @@
         <v>328</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>302</v>
@@ -9916,7 +9905,7 @@
         <v>329</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>318</v>
@@ -9931,10 +9920,10 @@
         <v>330</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="52" customFormat="1" ht="14.25">
@@ -9945,7 +9934,7 @@
         <v>331</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D49" s="49" t="s">
         <v>308</v>
@@ -9973,7 +9962,7 @@
         <v>333</v>
       </c>
       <c r="C51" s="87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D51" s="49" t="s">
         <v>317</v>
@@ -10001,7 +9990,7 @@
         <v>335</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D53" s="87" t="s">
         <v>312</v>
@@ -10012,10 +10001,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D54" s="48" t="s">
         <v>313</v>
@@ -10029,7 +10018,7 @@
         <v>336</v>
       </c>
       <c r="C55" s="87" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D55" s="48" t="s">
         <v>303</v>
@@ -10043,10 +10032,10 @@
         <v>337</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="52" customFormat="1" ht="14.25">
@@ -10057,10 +10046,10 @@
         <v>338</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="52" customFormat="1" ht="14.25">
@@ -10172,7 +10161,7 @@
         <v>18</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="52" customFormat="1" ht="14.25">
@@ -10180,10 +10169,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D66" s="48" t="s">
         <v>311</v>
@@ -10197,304 +10186,300 @@
         <v>347</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D67" s="48" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="52" customFormat="1" ht="14.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
+    <row r="68" spans="1:6" s="52" customFormat="1"/>
     <row r="69" spans="1:6" s="52" customFormat="1" ht="14.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>320</v>
+      <c r="A69" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="52" customFormat="1"/>
-    <row r="71" spans="1:6" s="52" customFormat="1" ht="14.25">
-      <c r="A71" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>247</v>
-      </c>
-    </row>
+    <row r="71" spans="1:6" s="52" customFormat="1"/>
     <row r="72" spans="1:6" s="52" customFormat="1"/>
-    <row r="73" spans="1:6" s="52" customFormat="1"/>
-    <row r="74" spans="1:6" s="52" customFormat="1"/>
+    <row r="73" spans="1:6" s="54" customFormat="1" ht="14.25">
+      <c r="A73" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="54" customFormat="1"/>
     <row r="75" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A75" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="54" customFormat="1"/>
-    <row r="77" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="57" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C75" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D75" s="57" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="76" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="A76" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" s="58"/>
+    </row>
+    <row r="77" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="A77" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="1:6" s="54" customFormat="1" ht="15">
       <c r="A78" s="61" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C78" s="87" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F78" s="58"/>
     </row>
     <row r="79" spans="1:6" s="54" customFormat="1" ht="15">
       <c r="A79" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="58"/>
+    </row>
+    <row r="80" spans="1:6" s="74" customFormat="1" ht="14.25">
+      <c r="A80" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="C79" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="D79" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="F79" s="58"/>
-    </row>
-    <row r="80" spans="1:6" s="54" customFormat="1" ht="15">
-      <c r="A80" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="87" t="s">
-        <v>436</v>
-      </c>
-      <c r="D80" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F80" s="58"/>
-    </row>
-    <row r="81" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="B80" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="87">
+        <v>13900000000</v>
+      </c>
+      <c r="D80" s="88" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A81" s="61" t="s">
         <v>202</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C81" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="D81" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="58"/>
-    </row>
-    <row r="82" spans="1:6" s="74" customFormat="1" ht="14.25">
-      <c r="A82" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="89" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" s="87">
-        <v>13900000000</v>
-      </c>
-      <c r="D82" s="88" t="s">
-        <v>308</v>
-      </c>
-    </row>
+        <v>424</v>
+      </c>
+      <c r="D81" s="62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="54" customFormat="1"/>
     <row r="83" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A83" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="87" t="s">
-        <v>426</v>
-      </c>
-      <c r="D83" s="62" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="54" customFormat="1"/>
+        <v>18</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="56"/>
+    </row>
     <row r="85" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A85" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="14.25">
-      <c r="A86" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="56" t="s">
-        <v>307</v>
-      </c>
-    </row>
+      <c r="A85" s="61"/>
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:6" s="54" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A87" s="61" t="s">
-        <v>445</v>
-      </c>
-      <c r="B87" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="54" customFormat="1" ht="12.75" customHeight="1"/>
+        <v>0</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="54" customFormat="1"/>
     <row r="89" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A89" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="54" customFormat="1"/>
-    <row r="91" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="57" t="s">
+      <c r="A89" s="61"/>
+      <c r="B89" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C89" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="57" t="s">
+      <c r="D89" s="57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="54" customFormat="1" ht="15">
+    <row r="90" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="A90" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="87" t="s">
+        <v>436</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" s="58"/>
+    </row>
+    <row r="91" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="A91" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="87" t="s">
+        <v>435</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F91" s="58"/>
+    </row>
+    <row r="92" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A92" s="61" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C92" s="87" t="s">
-        <v>438</v>
-      </c>
-      <c r="D92" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F92" s="58"/>
-    </row>
-    <row r="93" spans="1:6" s="54" customFormat="1" ht="15">
-      <c r="A93" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" s="87" t="s">
-        <v>437</v>
-      </c>
-      <c r="D93" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F93" s="58"/>
-    </row>
+        <v>430</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="54" customFormat="1"/>
     <row r="94" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A94" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="54" customFormat="1"/>
+    <row r="96" spans="1:6" s="54" customFormat="1"/>
+    <row r="99" spans="1:6" s="54" customFormat="1" ht="14.25">
+      <c r="A99" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="54" customFormat="1"/>
+    <row r="101" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="A101" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="D94" s="62" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="54" customFormat="1"/>
-    <row r="96" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A96" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="54" customFormat="1"/>
-    <row r="98" spans="1:6" s="54" customFormat="1"/>
-    <row r="101" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A101" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="54" customFormat="1"/>
-    <row r="103" spans="1:6" s="54" customFormat="1" ht="15">
+      <c r="B101" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" s="58"/>
+    </row>
+    <row r="102" spans="1:6" s="54" customFormat="1" ht="14.25">
+      <c r="A102" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="87">
+        <v>5</v>
+      </c>
+      <c r="D102" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A103" s="61" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="F103" s="58"/>
+        <v>340</v>
+      </c>
+      <c r="C103" s="87">
+        <v>6</v>
+      </c>
+      <c r="D103" s="62" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="104" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A104" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C104" s="87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D104" s="62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="54" customFormat="1" ht="14.25">
@@ -10502,13 +10487,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C105" s="87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" s="62" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="54" customFormat="1" ht="14.25">
@@ -10516,27 +10501,27 @@
         <v>4</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C106" s="87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D106" s="62" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A107" s="61" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C107" s="87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="54" customFormat="1" ht="14.25">
@@ -10544,66 +10529,56 @@
         <v>4</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C108" s="87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A109" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="C109" s="87">
-        <v>10</v>
-      </c>
-      <c r="D109" s="62" t="s">
-        <v>315</v>
-      </c>
-    </row>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="54" customFormat="1"/>
     <row r="110" spans="1:6" s="54" customFormat="1" ht="14.25">
       <c r="A110" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C110" s="87">
-        <v>11</v>
-      </c>
-      <c r="D110" s="62" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="54" customFormat="1"/>
-    <row r="112" spans="1:6" s="54" customFormat="1" ht="14.25">
-      <c r="A112" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B110" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="C112" s="54" t="s">
+      <c r="C110" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="54" customFormat="1" ht="14.25">
-      <c r="A113" s="19" t="s">
+    <row r="111" spans="1:6" s="54" customFormat="1" ht="14.25">
+      <c r="A111" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B111" s="25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="54" customFormat="1"/>
-    <row r="115" spans="1:2" s="54" customFormat="1"/>
+    <row r="112" spans="1:6" s="54" customFormat="1"/>
+    <row r="113" s="54" customFormat="1"/>
+    <row r="188" spans="1:7">
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+    </row>
     <row r="190" spans="1:7">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
@@ -10642,28 +10617,10 @@
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -10680,8 +10637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10707,12 +10664,12 @@
         <v>86</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="60" customFormat="1">
       <c r="B3" s="69" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>87</v>
@@ -10823,7 +10780,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D5" s="70" t="s">
         <v>180</v>
@@ -10835,25 +10792,25 @@
         <v>90</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>260</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>260</v>
       </c>
       <c r="K5" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="M5" s="70" t="s">
         <v>398</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>400</v>
       </c>
       <c r="N5" s="70" t="s">
         <v>249</v>
@@ -10862,13 +10819,13 @@
         <v>254</v>
       </c>
       <c r="P5" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="R5" s="70" t="s">
         <v>401</v>
-      </c>
-      <c r="Q5" s="70" t="s">
-        <v>402</v>
-      </c>
-      <c r="R5" s="70" t="s">
-        <v>403</v>
       </c>
       <c r="S5" s="70" t="s">
         <v>207</v>
@@ -10877,13 +10834,13 @@
         <v>169</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V5" s="70" t="s">
         <v>259</v>
       </c>
       <c r="W5" s="70" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X5" s="95" t="s">
         <v>90</v>
@@ -10891,26 +10848,26 @@
       <c r="Y5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="70" t="s">
-        <v>248</v>
+      <c r="Z5" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA5" s="103" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AB5" s="70" t="s">
         <v>248</v>
       </c>
       <c r="AC5" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF5" s="70" t="s">
         <v>406</v>
-      </c>
-      <c r="AD5" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE5" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF5" s="70" t="s">
-        <v>408</v>
       </c>
       <c r="AG5" s="65"/>
       <c r="AH5" s="65"/>
@@ -10961,7 +10918,7 @@
         <v>260</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>180</v>
@@ -10973,25 +10930,25 @@
         <v>192</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6" s="94" t="s">
         <v>259</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J6" s="94" t="s">
         <v>259</v>
       </c>
       <c r="K6" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="M6" s="94" t="s">
         <v>430</v>
-      </c>
-      <c r="L6" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="M6" s="94" t="s">
-        <v>432</v>
       </c>
       <c r="N6" s="94" t="s">
         <v>169</v>
@@ -11021,7 +10978,7 @@
         <v>77</v>
       </c>
       <c r="W6" s="94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X6" s="95" t="s">
         <v>192</v>
@@ -11029,17 +10986,17 @@
       <c r="Y6" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="Z6" s="94" t="s">
-        <v>248</v>
+      <c r="Z6" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA6" s="103" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AB6" s="94" t="s">
         <v>249</v>
       </c>
       <c r="AC6" s="94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD6" s="95" t="s">
         <v>192</v>
@@ -11048,7 +11005,7 @@
         <v>135</v>
       </c>
       <c r="AF6" s="94" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG6" s="65"/>
       <c r="AH6" s="65"/>
@@ -11096,10 +11053,10 @@
     <row r="7" spans="1:74" s="54" customFormat="1" ht="13.5">
       <c r="A7" s="72"/>
       <c r="B7" s="70" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>180</v>
@@ -11111,13 +11068,13 @@
         <v>90</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H7" s="94" t="s">
         <v>260</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J7" s="95" t="s">
         <v>192</v>
@@ -11129,7 +11086,7 @@
         <v>90</v>
       </c>
       <c r="M7" s="94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N7" s="95" t="s">
         <v>192</v>
@@ -11167,8 +11124,8 @@
       <c r="Y7" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="Z7" s="94" t="s">
-        <v>248</v>
+      <c r="Z7" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA7" s="95" t="s">
         <v>90</v>
@@ -11234,10 +11191,10 @@
     <row r="8" spans="1:74" s="54" customFormat="1" ht="13.5">
       <c r="A8" s="72"/>
       <c r="B8" s="70" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>180</v>
@@ -11249,7 +11206,7 @@
         <v>90</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H8" s="94" t="s">
         <v>259</v>
@@ -11267,7 +11224,7 @@
         <v>90</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N8" s="95" t="s">
         <v>192</v>
@@ -11305,8 +11262,8 @@
       <c r="Y8" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="Z8" s="94" t="s">
-        <v>248</v>
+      <c r="Z8" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA8" s="95" t="s">
         <v>90</v>
@@ -11372,10 +11329,10 @@
     <row r="9" spans="1:74" s="54" customFormat="1" ht="13.5">
       <c r="A9" s="72"/>
       <c r="B9" s="70" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>180</v>
@@ -11414,13 +11371,13 @@
         <v>254</v>
       </c>
       <c r="P9" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q9" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="R9" s="94" t="s">
         <v>401</v>
-      </c>
-      <c r="Q9" s="94" t="s">
-        <v>402</v>
-      </c>
-      <c r="R9" s="94" t="s">
-        <v>403</v>
       </c>
       <c r="S9" s="94" t="s">
         <v>207</v>
@@ -11443,8 +11400,8 @@
       <c r="Y9" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="94" t="s">
-        <v>248</v>
+      <c r="Z9" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA9" s="95" t="s">
         <v>192</v>
@@ -11513,7 +11470,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
@@ -11588,7 +11545,7 @@
     </row>
     <row r="12" spans="1:74" s="60" customFormat="1">
       <c r="B12" s="69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:74" s="60" customFormat="1">
@@ -11596,10 +11553,10 @@
         <v>256</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:74" s="60" customFormat="1">
@@ -11621,7 +11578,7 @@
         <v>271</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:74" s="54" customFormat="1" ht="13.5"/>
@@ -11673,7 +11630,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -11681,7 +11638,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -11739,7 +11696,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D8" s="88" t="s">
         <v>302</v>
@@ -11754,7 +11711,7 @@
         <v>329</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="88" t="s">
         <v>318</v>
@@ -11769,10 +11726,10 @@
         <v>330</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="54" customFormat="1" ht="14.25">
@@ -11783,7 +11740,7 @@
         <v>331</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="88" t="s">
         <v>308</v>
@@ -11933,7 +11890,7 @@
         <v>246</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="54" customFormat="1"/>
@@ -11949,8 +11906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11961,12 +11918,12 @@
         <v>86</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="60" customFormat="1" ht="12">
       <c r="B3" s="69" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>87</v>
@@ -12077,7 +12034,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D5" s="94" t="s">
         <v>180</v>
@@ -12089,25 +12046,25 @@
         <v>90</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>260</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J5" s="94" t="s">
         <v>260</v>
       </c>
       <c r="K5" s="94" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="M5" s="94" t="s">
         <v>398</v>
-      </c>
-      <c r="L5" s="94" t="s">
-        <v>399</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>400</v>
       </c>
       <c r="N5" s="94" t="s">
         <v>249</v>
@@ -12116,13 +12073,13 @@
         <v>254</v>
       </c>
       <c r="P5" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="R5" s="94" t="s">
         <v>401</v>
-      </c>
-      <c r="Q5" s="94" t="s">
-        <v>402</v>
-      </c>
-      <c r="R5" s="94" t="s">
-        <v>403</v>
       </c>
       <c r="S5" s="94" t="s">
         <v>207</v>
@@ -12131,13 +12088,13 @@
         <v>169</v>
       </c>
       <c r="U5" s="94" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V5" s="94" t="s">
         <v>259</v>
       </c>
       <c r="W5" s="94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X5" s="95" t="s">
         <v>90</v>
@@ -12145,26 +12102,26 @@
       <c r="Y5" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="94" t="s">
-        <v>248</v>
+      <c r="Z5" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA5" s="105" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AB5" s="94" t="s">
         <v>248</v>
       </c>
       <c r="AC5" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF5" s="94" t="s">
         <v>406</v>
-      </c>
-      <c r="AD5" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE5" s="94" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF5" s="94" t="s">
-        <v>408</v>
       </c>
       <c r="AG5" s="97"/>
       <c r="AH5" s="97"/>
@@ -12215,7 +12172,7 @@
         <v>260</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" s="94" t="s">
         <v>180</v>
@@ -12227,25 +12184,25 @@
         <v>192</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6" s="94" t="s">
         <v>259</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J6" s="94" t="s">
         <v>259</v>
       </c>
       <c r="K6" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="M6" s="94" t="s">
         <v>430</v>
-      </c>
-      <c r="L6" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="M6" s="94" t="s">
-        <v>432</v>
       </c>
       <c r="N6" s="94" t="s">
         <v>169</v>
@@ -12275,7 +12232,7 @@
         <v>77</v>
       </c>
       <c r="W6" s="94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X6" s="95" t="s">
         <v>192</v>
@@ -12283,17 +12240,17 @@
       <c r="Y6" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="Z6" s="94" t="s">
-        <v>248</v>
+      <c r="Z6" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA6" s="105" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AB6" s="94" t="s">
         <v>249</v>
       </c>
       <c r="AC6" s="94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD6" s="95" t="s">
         <v>192</v>
@@ -12302,7 +12259,7 @@
         <v>135</v>
       </c>
       <c r="AF6" s="94" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG6" s="97"/>
       <c r="AH6" s="97"/>
@@ -12350,10 +12307,10 @@
     <row r="7" spans="1:74" s="90" customFormat="1">
       <c r="A7" s="96"/>
       <c r="B7" s="94" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>180</v>
@@ -12365,13 +12322,13 @@
         <v>90</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H7" s="94" t="s">
         <v>260</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J7" s="95" t="s">
         <v>192</v>
@@ -12383,7 +12340,7 @@
         <v>90</v>
       </c>
       <c r="M7" s="94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N7" s="95" t="s">
         <v>192</v>
@@ -12421,8 +12378,8 @@
       <c r="Y7" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="Z7" s="94" t="s">
-        <v>248</v>
+      <c r="Z7" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA7" s="95" t="s">
         <v>90</v>
@@ -12488,10 +12445,10 @@
     <row r="8" spans="1:74" s="90" customFormat="1">
       <c r="A8" s="96"/>
       <c r="B8" s="94" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="94" t="s">
         <v>180</v>
@@ -12503,7 +12460,7 @@
         <v>90</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H8" s="94" t="s">
         <v>259</v>
@@ -12521,7 +12478,7 @@
         <v>90</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N8" s="95" t="s">
         <v>192</v>
@@ -12559,8 +12516,8 @@
       <c r="Y8" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="Z8" s="94" t="s">
-        <v>248</v>
+      <c r="Z8" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA8" s="95" t="s">
         <v>90</v>
@@ -12626,10 +12583,10 @@
     <row r="9" spans="1:74" s="90" customFormat="1">
       <c r="A9" s="100"/>
       <c r="B9" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D9" s="98" t="s">
         <v>180</v>
@@ -12641,13 +12598,13 @@
         <v>192</v>
       </c>
       <c r="G9" s="98" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H9" s="98" t="s">
         <v>260</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J9" s="98" t="s">
         <v>249</v>
@@ -12665,13 +12622,13 @@
         <v>254</v>
       </c>
       <c r="O9" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="P9" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="98" t="s">
         <v>401</v>
-      </c>
-      <c r="P9" s="98" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q9" s="98" t="s">
-        <v>403</v>
       </c>
       <c r="R9" s="98" t="s">
         <v>207</v>
@@ -12697,8 +12654,8 @@
       <c r="Y9" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="98" t="s">
-        <v>248</v>
+      <c r="Z9" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA9" s="99" t="s">
         <v>90</v>
@@ -12707,7 +12664,7 @@
         <v>90</v>
       </c>
       <c r="AC9" s="98" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AD9" s="99" t="s">
         <v>90</v>
@@ -12716,7 +12673,7 @@
         <v>90</v>
       </c>
       <c r="AF9" s="98" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG9" s="101"/>
       <c r="AH9" s="101"/>
@@ -12766,7 +12723,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
@@ -12841,7 +12798,7 @@
     </row>
     <row r="12" spans="1:74" s="60" customFormat="1" ht="12">
       <c r="B12" s="69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:74" s="60" customFormat="1" ht="12">
@@ -12849,10 +12806,10 @@
         <v>256</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:74" s="60" customFormat="1" ht="12">
@@ -12874,7 +12831,7 @@
         <v>271</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" s="60" customFormat="1" ht="12"/>
@@ -12929,7 +12886,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
@@ -12940,7 +12897,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
@@ -12948,7 +12905,7 @@
         <v>246</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -12962,7 +12919,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -12973,7 +12930,7 @@
         <v>269</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -12981,7 +12938,7 @@
         <v>246</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -12992,10 +12949,10 @@
         <v>268</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13006,7 +12963,7 @@
         <v>269</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13014,7 +12971,7 @@
         <v>246</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13028,7 +12985,7 @@
         <v>13900000000</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13039,7 +12996,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13047,7 +13004,7 @@
         <v>246</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13058,10 +13015,10 @@
         <v>268</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13072,7 +13029,7 @@
         <v>269</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="74" customFormat="1" ht="14.25">
@@ -13080,7 +13037,7 @@
         <v>246</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -13120,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
@@ -13128,7 +13085,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
@@ -13144,7 +13101,7 @@
         <v>246</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -13158,8 +13115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13170,12 +13127,12 @@
         <v>86</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="80" customFormat="1" ht="12">
       <c r="B3" s="83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>87</v>
@@ -13286,7 +13243,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>180</v>
@@ -13298,25 +13255,25 @@
         <v>192</v>
       </c>
       <c r="G5" s="103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H5" s="103" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="103" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J5" s="103" t="s">
         <v>259</v>
       </c>
       <c r="K5" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" s="103" t="s">
         <v>430</v>
-      </c>
-      <c r="L5" s="103" t="s">
-        <v>431</v>
-      </c>
-      <c r="M5" s="103" t="s">
-        <v>432</v>
       </c>
       <c r="N5" s="103" t="s">
         <v>169</v>
@@ -13346,7 +13303,7 @@
         <v>77</v>
       </c>
       <c r="W5" s="103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X5" s="99" t="s">
         <v>192</v>
@@ -13354,17 +13311,17 @@
       <c r="Y5" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" s="103" t="s">
-        <v>248</v>
+      <c r="Z5" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA5" s="105" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AB5" s="103" t="s">
         <v>249</v>
       </c>
       <c r="AC5" s="103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD5" s="99" t="s">
         <v>192</v>
@@ -13373,7 +13330,7 @@
         <v>135</v>
       </c>
       <c r="AF5" s="103" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG5" s="101"/>
       <c r="AH5" s="101"/>
@@ -13421,10 +13378,10 @@
     <row r="6" spans="1:74" s="102" customFormat="1">
       <c r="A6" s="100"/>
       <c r="B6" s="103" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" s="103" t="s">
         <v>180</v>
@@ -13436,13 +13393,13 @@
         <v>90</v>
       </c>
       <c r="G6" s="103" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H6" s="103" t="s">
         <v>260</v>
       </c>
       <c r="I6" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J6" s="99" t="s">
         <v>192</v>
@@ -13454,7 +13411,7 @@
         <v>90</v>
       </c>
       <c r="M6" s="103" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N6" s="99" t="s">
         <v>192</v>
@@ -13492,8 +13449,8 @@
       <c r="Y6" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="Z6" s="103" t="s">
-        <v>248</v>
+      <c r="Z6" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA6" s="99" t="s">
         <v>90</v>
@@ -13559,10 +13516,10 @@
     <row r="7" spans="1:74" s="102" customFormat="1">
       <c r="A7" s="100"/>
       <c r="B7" s="103" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="103" t="s">
         <v>180</v>
@@ -13574,7 +13531,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="103" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H7" s="103" t="s">
         <v>259</v>
@@ -13592,7 +13549,7 @@
         <v>90</v>
       </c>
       <c r="M7" s="103" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N7" s="99" t="s">
         <v>192</v>
@@ -13630,8 +13587,8 @@
       <c r="Y7" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="Z7" s="103" t="s">
-        <v>248</v>
+      <c r="Z7" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA7" s="99" t="s">
         <v>90</v>
@@ -13697,10 +13654,10 @@
     <row r="8" spans="1:74" s="102" customFormat="1">
       <c r="A8" s="100"/>
       <c r="B8" s="103" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="103" t="s">
         <v>180</v>
@@ -13712,13 +13669,13 @@
         <v>192</v>
       </c>
       <c r="G8" s="103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H8" s="103" t="s">
         <v>260</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J8" s="103" t="s">
         <v>249</v>
@@ -13736,13 +13693,13 @@
         <v>254</v>
       </c>
       <c r="O8" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="P8" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="103" t="s">
         <v>401</v>
-      </c>
-      <c r="P8" s="103" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q8" s="103" t="s">
-        <v>403</v>
       </c>
       <c r="R8" s="103" t="s">
         <v>207</v>
@@ -13768,8 +13725,8 @@
       <c r="Y8" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="Z8" s="103" t="s">
-        <v>248</v>
+      <c r="Z8" s="112" t="s">
+        <v>573</v>
       </c>
       <c r="AA8" s="99" t="s">
         <v>90</v>
@@ -13778,7 +13735,7 @@
         <v>90</v>
       </c>
       <c r="AC8" s="103" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AD8" s="99" t="s">
         <v>90</v>
@@ -13787,7 +13744,7 @@
         <v>90</v>
       </c>
       <c r="AF8" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG8" s="101"/>
       <c r="AH8" s="101"/>
@@ -13832,13 +13789,15 @@
       <c r="BU8" s="101"/>
       <c r="BV8" s="101"/>
     </row>
-    <row r="9" spans="1:74" s="74" customFormat="1"/>
+    <row r="9" spans="1:74" s="74" customFormat="1">
+      <c r="Z9" s="114"/>
+    </row>
     <row r="10" spans="1:74" s="80" customFormat="1" ht="14.25">
       <c r="A10" s="81" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
@@ -13913,7 +13872,7 @@
     </row>
     <row r="11" spans="1:74" s="80" customFormat="1" ht="12">
       <c r="B11" s="83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:74" s="80" customFormat="1" ht="12">
@@ -13921,10 +13880,10 @@
         <v>256</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:74" s="80" customFormat="1" ht="12">
@@ -13935,7 +13894,7 @@
         <v>271</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:74" s="74" customFormat="1"/>
@@ -13985,13 +13944,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="102" customFormat="1" ht="14.25">
@@ -13999,13 +13958,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="102" customFormat="1" ht="14.25">
@@ -14013,13 +13972,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C6" s="87" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="102" customFormat="1" ht="14.25">
@@ -14027,13 +13986,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C7" s="87">
         <v>15200000000</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
@@ -14041,10 +14000,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D8" s="88" t="s">
         <v>317</v>
@@ -14055,13 +14014,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
@@ -14069,31 +14028,31 @@
         <v>4</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="85" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="85" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C12" s="87"/>
       <c r="D12" s="88"/>
@@ -14103,13 +14062,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
@@ -14117,13 +14076,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
@@ -14131,13 +14090,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C15" s="87">
         <v>11</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
@@ -14145,13 +14104,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C16" s="87">
         <v>22</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
@@ -14159,13 +14118,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C17" s="87">
         <v>33</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
@@ -14173,13 +14132,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C18" s="87">
         <v>44</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25">
@@ -14187,29 +14146,29 @@
         <v>4</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="85" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="85" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/test_物件管理/test_ホワイトボート_問い合わせ履歴.xlsx
+++ b/test_物件管理/test_ホワイトボート_問い合わせ履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -1551,9 +1551,6 @@
     <t>DELETE FROM ap_contractor_transfer;</t>
   </si>
   <si>
-    <t>DELETE FROM ap_contractor;</t>
-  </si>
-  <si>
     <t>DELETE FROM ap_subscription;</t>
   </si>
   <si>
@@ -2021,10 +2018,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>002-001-021-問い合わせ/反響入力</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>002-001-022-問い合わせ履歴の表示</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2038,6 +2031,14 @@
   </si>
   <si>
     <t>002-001-025-問い合わせ追加保存后</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE ap_contractor;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002-001-021-問い合わせ反響入力</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2045,7 +2046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,13 +2280,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2420,7 +2414,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2723,7 +2717,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3111,142 +3104,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW125"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" s="96" customFormat="1" ht="14.25">
-      <c r="A1" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="96" customFormat="1" ht="14.25">
+    <row r="1" spans="1:4" s="86" customFormat="1" ht="14.25">
+      <c r="A1" s="94" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="1:4" s="96" customFormat="1" ht="14.25">
       <c r="A2" s="106" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="105" customFormat="1" ht="14.25">
-      <c r="A3" s="109" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="96" customFormat="1" ht="14.25">
+      <c r="A3" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="105" customFormat="1" ht="14.25">
+      <c r="B3" s="107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="105" customFormat="1" ht="14.25">
       <c r="A4" s="109" t="s">
         <v>181</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="105" customFormat="1" ht="14.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="105" customFormat="1" ht="14.25">
       <c r="A5" s="109" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="110" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="105" customFormat="1" ht="14.25">
+      <c r="A6" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="110" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A6" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="79" customFormat="1" ht="14.25">
+    <row r="7" spans="1:4" s="79" customFormat="1" ht="14.25">
       <c r="A7" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="79" customFormat="1" ht="14.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="79" customFormat="1" ht="14.25">
       <c r="A8" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="79" customFormat="1" ht="14.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="79" customFormat="1" ht="14.25">
       <c r="A9" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="103" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="79" customFormat="1" ht="14.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="79" customFormat="1" ht="14.25">
       <c r="A10" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="79" customFormat="1" ht="14.25">
       <c r="A11" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B13" s="103" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="103" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="108" customFormat="1" ht="14.25">
-      <c r="A14" s="112" t="s">
+    <row r="15" spans="1:4" s="108" customFormat="1" ht="14.25">
+      <c r="A15" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="113" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="108" customFormat="1" ht="14.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-    </row>
-    <row r="16" spans="1:2" ht="14.25">
-      <c r="A16" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>452</v>
-      </c>
+      <c r="B15" s="113" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="108" customFormat="1" ht="14.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
@@ -3254,31 +3249,31 @@
         <v>181</v>
       </c>
       <c r="B18" s="103" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="103" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="111" customFormat="1" ht="14.25">
-      <c r="A19" s="115" t="s">
+    <row r="20" spans="1:2" s="111" customFormat="1" ht="14.25">
+      <c r="A20" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="116" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
-      <c r="A20" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="103" t="s">
-        <v>455</v>
+      <c r="B20" s="116" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="103" t="s">
-        <v>185</v>
+      <c r="B21" s="154" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
@@ -3286,7 +3281,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
@@ -3294,7 +3289,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>456</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25">
@@ -3302,7 +3297,7 @@
         <v>181</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>187</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25">
@@ -3310,7 +3305,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>458</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25">
@@ -3318,23 +3313,23 @@
         <v>181</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>460</v>
+      <c r="B27" s="103" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="103" t="s">
-        <v>461</v>
+      <c r="B28" s="88" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25">
@@ -3342,7 +3337,7 @@
         <v>181</v>
       </c>
       <c r="B29" s="103" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25">
@@ -3350,7 +3345,7 @@
         <v>181</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25">
@@ -3358,7 +3353,7 @@
         <v>181</v>
       </c>
       <c r="B31" s="103" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25">
@@ -3366,7 +3361,7 @@
         <v>181</v>
       </c>
       <c r="B32" s="103" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:75" ht="14.25">
@@ -3374,7 +3369,7 @@
         <v>181</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:75" ht="14.25">
@@ -3382,7 +3377,7 @@
         <v>181</v>
       </c>
       <c r="B34" s="103" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:75" ht="14.25">
@@ -3390,7 +3385,7 @@
         <v>181</v>
       </c>
       <c r="B35" s="103" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:75" ht="14.25">
@@ -3398,7 +3393,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="103" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:75" ht="14.25">
@@ -3406,7 +3401,7 @@
         <v>181</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:75" ht="14.25">
@@ -3414,7 +3409,7 @@
         <v>181</v>
       </c>
       <c r="B38" s="103" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:75" ht="14.25">
@@ -3422,7 +3417,7 @@
         <v>181</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:75" ht="14.25">
@@ -3430,7 +3425,7 @@
         <v>181</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:75" ht="14.25">
@@ -3438,27 +3433,27 @@
         <v>181</v>
       </c>
       <c r="B41" s="103" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:75" ht="14.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="43" spans="1:75" ht="14.25">
-      <c r="A43" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>475</v>
-      </c>
+      <c r="A43" s="89"/>
+      <c r="B43" s="103"/>
     </row>
     <row r="44" spans="1:75" ht="14.25">
       <c r="A44" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B44" s="103" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:75" ht="14.25">
@@ -3466,88 +3461,15 @@
         <v>181</v>
       </c>
       <c r="B45" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="86"/>
-      <c r="AD45" s="86"/>
-      <c r="AE45" s="86"/>
-      <c r="AF45" s="86"/>
-      <c r="AG45" s="86"/>
-      <c r="AH45" s="86"/>
-      <c r="AI45" s="86"/>
-      <c r="AJ45" s="86"/>
-      <c r="AK45" s="86"/>
-      <c r="AL45" s="86"/>
-      <c r="AM45" s="86"/>
-      <c r="AN45" s="86"/>
-      <c r="AO45" s="86"/>
-      <c r="AP45" s="86"/>
-      <c r="AQ45" s="86"/>
-      <c r="AR45" s="86"/>
-      <c r="AS45" s="86"/>
-      <c r="AT45" s="86"/>
-      <c r="AU45" s="86"/>
-      <c r="AV45" s="86"/>
-      <c r="AW45" s="86"/>
-      <c r="AX45" s="86"/>
-      <c r="AY45" s="86"/>
-      <c r="AZ45" s="86"/>
-      <c r="BA45" s="86"/>
-      <c r="BB45" s="86"/>
-      <c r="BC45" s="86"/>
-      <c r="BD45" s="86"/>
-      <c r="BE45" s="86"/>
-      <c r="BF45" s="86"/>
-      <c r="BG45" s="86"/>
-      <c r="BH45" s="86"/>
-      <c r="BI45" s="86"/>
-      <c r="BJ45" s="86"/>
-      <c r="BK45" s="86"/>
-      <c r="BL45" s="86"/>
-      <c r="BM45" s="86"/>
-      <c r="BN45" s="86"/>
-      <c r="BO45" s="86"/>
-      <c r="BP45" s="86"/>
-      <c r="BQ45" s="86"/>
-      <c r="BR45" s="86"/>
-      <c r="BS45" s="86"/>
-      <c r="BT45" s="86"/>
-      <c r="BU45" s="86"/>
-      <c r="BV45" s="86"/>
-      <c r="BW45" s="86"/>
+        <v>475</v>
+      </c>
     </row>
     <row r="46" spans="1:75" ht="14.25">
       <c r="A46" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="88" t="s">
-        <v>184</v>
+      <c r="B46" s="103" t="s">
+        <v>183</v>
       </c>
       <c r="C46" s="86"/>
       <c r="D46" s="86"/>
@@ -3623,25 +3545,96 @@
       <c r="BV46" s="86"/>
       <c r="BW46" s="86"/>
     </row>
-    <row r="47" spans="1:75" s="114" customFormat="1" ht="14.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="116"/>
-    </row>
-    <row r="48" spans="1:75" s="86" customFormat="1" ht="14.25">
-      <c r="A48" s="94" t="s">
-        <v>534</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
+    <row r="47" spans="1:75" ht="14.25">
+      <c r="A47" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="86"/>
+      <c r="AF47" s="86"/>
+      <c r="AG47" s="86"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="86"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="86"/>
+      <c r="AL47" s="86"/>
+      <c r="AM47" s="86"/>
+      <c r="AN47" s="86"/>
+      <c r="AO47" s="86"/>
+      <c r="AP47" s="86"/>
+      <c r="AQ47" s="86"/>
+      <c r="AR47" s="86"/>
+      <c r="AS47" s="86"/>
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="86"/>
+      <c r="AV47" s="86"/>
+      <c r="AW47" s="86"/>
+      <c r="AX47" s="86"/>
+      <c r="AY47" s="86"/>
+      <c r="AZ47" s="86"/>
+      <c r="BA47" s="86"/>
+      <c r="BB47" s="86"/>
+      <c r="BC47" s="86"/>
+      <c r="BD47" s="86"/>
+      <c r="BE47" s="86"/>
+      <c r="BF47" s="86"/>
+      <c r="BG47" s="86"/>
+      <c r="BH47" s="86"/>
+      <c r="BI47" s="86"/>
+      <c r="BJ47" s="86"/>
+      <c r="BK47" s="86"/>
+      <c r="BL47" s="86"/>
+      <c r="BM47" s="86"/>
+      <c r="BN47" s="86"/>
+      <c r="BO47" s="86"/>
+      <c r="BP47" s="86"/>
+      <c r="BQ47" s="86"/>
+      <c r="BR47" s="86"/>
+      <c r="BS47" s="86"/>
+      <c r="BT47" s="86"/>
+      <c r="BU47" s="86"/>
+      <c r="BV47" s="86"/>
+      <c r="BW47" s="86"/>
+    </row>
+    <row r="48" spans="1:75" s="114" customFormat="1" ht="14.25">
+      <c r="A48" s="117"/>
+      <c r="B48" s="116"/>
     </row>
     <row r="49" spans="1:75" s="86" customFormat="1" ht="14.25">
       <c r="A49" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="154" t="s">
         <v>375</v>
       </c>
       <c r="D49" s="88"/>
@@ -3671,7 +3664,7 @@
         <v>181</v>
       </c>
       <c r="B53" s="126" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C53" s="126"/>
       <c r="D53" s="126"/>
@@ -3752,7 +3745,7 @@
         <v>181</v>
       </c>
       <c r="B54" s="126" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C54" s="126"/>
       <c r="D54" s="126"/>
@@ -3833,7 +3826,7 @@
         <v>181</v>
       </c>
       <c r="B55" s="126" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C55" s="126"/>
       <c r="D55" s="126"/>
@@ -3914,7 +3907,7 @@
         <v>181</v>
       </c>
       <c r="B56" s="126" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C56" s="126"/>
       <c r="D56" s="126"/>
@@ -3995,7 +3988,7 @@
         <v>181</v>
       </c>
       <c r="B57" s="110" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C57" s="95"/>
       <c r="D57" s="95"/>
@@ -4076,7 +4069,7 @@
         <v>181</v>
       </c>
       <c r="B58" s="110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C58" s="92"/>
       <c r="D58" s="92"/>
@@ -4161,7 +4154,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C60" s="96"/>
       <c r="D60" s="96"/>
@@ -4240,7 +4233,7 @@
     <row r="61" spans="1:75" s="92" customFormat="1">
       <c r="A61" s="96"/>
       <c r="B61" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C61" s="96"/>
       <c r="D61" s="96"/>
@@ -4334,19 +4327,19 @@
         <v>21</v>
       </c>
       <c r="G62" s="97" t="s">
+        <v>506</v>
+      </c>
+      <c r="H62" s="97" t="s">
         <v>507</v>
-      </c>
-      <c r="H62" s="97" t="s">
-        <v>508</v>
       </c>
       <c r="I62" s="97" t="s">
         <v>266</v>
       </c>
       <c r="J62" s="97" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" s="97" t="s">
         <v>509</v>
-      </c>
-      <c r="K62" s="97" t="s">
-        <v>510</v>
       </c>
       <c r="L62" s="97" t="s">
         <v>280</v>
@@ -4355,22 +4348,22 @@
         <v>9</v>
       </c>
       <c r="N62" s="97" t="s">
+        <v>510</v>
+      </c>
+      <c r="O62" s="97" t="s">
         <v>511</v>
-      </c>
-      <c r="O62" s="97" t="s">
-        <v>512</v>
       </c>
       <c r="P62" s="97" t="s">
         <v>289</v>
       </c>
       <c r="Q62" s="97" t="s">
+        <v>512</v>
+      </c>
+      <c r="R62" s="97" t="s">
         <v>513</v>
       </c>
-      <c r="R62" s="97" t="s">
+      <c r="S62" s="97" t="s">
         <v>514</v>
-      </c>
-      <c r="S62" s="97" t="s">
-        <v>515</v>
       </c>
       <c r="T62" s="96"/>
       <c r="U62" s="96"/>
@@ -4447,10 +4440,10 @@
         <v>191</v>
       </c>
       <c r="G63" s="99" t="s">
+        <v>515</v>
+      </c>
+      <c r="H63" s="99" t="s">
         <v>516</v>
-      </c>
-      <c r="H63" s="99" t="s">
-        <v>517</v>
       </c>
       <c r="I63" s="100" t="s">
         <v>191</v>
@@ -4560,10 +4553,10 @@
         <v>191</v>
       </c>
       <c r="G64" s="99" t="s">
+        <v>517</v>
+      </c>
+      <c r="H64" s="99" t="s">
         <v>518</v>
-      </c>
-      <c r="H64" s="99" t="s">
-        <v>519</v>
       </c>
       <c r="I64" s="100" t="s">
         <v>191</v>
@@ -4673,10 +4666,10 @@
         <v>191</v>
       </c>
       <c r="G65" s="99" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="99" t="s">
         <v>520</v>
-      </c>
-      <c r="H65" s="99" t="s">
-        <v>521</v>
       </c>
       <c r="I65" s="100" t="s">
         <v>191</v>
@@ -4786,10 +4779,10 @@
         <v>191</v>
       </c>
       <c r="G66" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="H66" s="99" t="s">
         <v>522</v>
-      </c>
-      <c r="H66" s="99" t="s">
-        <v>523</v>
       </c>
       <c r="I66" s="100" t="s">
         <v>191</v>
@@ -4899,10 +4892,10 @@
         <v>191</v>
       </c>
       <c r="G67" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="H67" s="99" t="s">
         <v>524</v>
-      </c>
-      <c r="H67" s="99" t="s">
-        <v>525</v>
       </c>
       <c r="I67" s="100" t="s">
         <v>191</v>
@@ -5012,10 +5005,10 @@
         <v>191</v>
       </c>
       <c r="G68" s="99" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H68" s="99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I68" s="100" t="s">
         <v>191</v>
@@ -5125,10 +5118,10 @@
         <v>191</v>
       </c>
       <c r="G69" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="H69" s="99" t="s">
         <v>527</v>
-      </c>
-      <c r="H69" s="99" t="s">
-        <v>528</v>
       </c>
       <c r="I69" s="100" t="s">
         <v>191</v>
@@ -5307,7 +5300,7 @@
     </row>
     <row r="72" spans="1:75" s="87" customFormat="1" ht="12">
       <c r="B72" s="63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C72" s="64" t="s">
         <v>87</v>
@@ -5610,7 +5603,7 @@
         <v>169</v>
       </c>
       <c r="U75" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V75" s="85" t="s">
         <v>77</v>
@@ -5643,7 +5636,7 @@
         <v>135</v>
       </c>
       <c r="AF75" s="85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG75" s="83"/>
       <c r="AH75" s="83"/>
@@ -5712,7 +5705,7 @@
         <v>253</v>
       </c>
       <c r="I76" s="85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J76" s="82" t="s">
         <v>191</v>
@@ -5748,7 +5741,7 @@
         <v>169</v>
       </c>
       <c r="U76" s="85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V76" s="85" t="s">
         <v>77</v>
@@ -5781,7 +5774,7 @@
         <v>135</v>
       </c>
       <c r="AF76" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG76" s="83"/>
       <c r="AH76" s="83"/>
@@ -5850,7 +5843,7 @@
         <v>252</v>
       </c>
       <c r="I77" s="85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J77" s="82" t="s">
         <v>191</v>
@@ -5862,7 +5855,7 @@
         <v>90</v>
       </c>
       <c r="M77" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N77" s="85" t="s">
         <v>246</v>
@@ -5886,7 +5879,7 @@
         <v>169</v>
       </c>
       <c r="U77" s="85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V77" s="85" t="s">
         <v>77</v>
@@ -5898,7 +5891,7 @@
         <v>90</v>
       </c>
       <c r="Y77" s="82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z77" s="85" t="s">
         <v>199</v>
@@ -5919,7 +5912,7 @@
         <v>440</v>
       </c>
       <c r="AF77" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG77" s="83"/>
       <c r="AH77" s="83"/>
@@ -5988,7 +5981,7 @@
         <v>253</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J78" s="85" t="s">
         <v>246</v>
@@ -6000,7 +5993,7 @@
         <v>191</v>
       </c>
       <c r="M78" s="85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N78" s="85" t="s">
         <v>246</v>
@@ -6024,7 +6017,7 @@
         <v>169</v>
       </c>
       <c r="U78" s="85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V78" s="85" t="s">
         <v>252</v>
@@ -6057,7 +6050,7 @@
         <v>125</v>
       </c>
       <c r="AF78" s="85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG78" s="83"/>
       <c r="AH78" s="83"/>
@@ -6183,7 +6176,7 @@
     </row>
     <row r="81" spans="1:75" s="87" customFormat="1" ht="12">
       <c r="B81" s="63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:75" s="87" customFormat="1" ht="12">
@@ -6304,7 +6297,7 @@
     <row r="88" spans="1:75">
       <c r="A88" s="33"/>
       <c r="B88" s="63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>87</v>
@@ -6849,7 +6842,7 @@
         <v>191</v>
       </c>
       <c r="BU90" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BV90" s="29">
         <v>1</v>
@@ -7068,7 +7061,7 @@
         <v>191</v>
       </c>
       <c r="BU91" s="85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BV91" s="29">
         <v>3</v>
@@ -7287,7 +7280,7 @@
         <v>191</v>
       </c>
       <c r="BU92" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BV92" s="29">
         <v>1</v>
@@ -7312,7 +7305,7 @@
         <v>139</v>
       </c>
       <c r="G93" s="123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H93" s="29"/>
       <c r="I93" s="30" t="s">
@@ -7506,7 +7499,7 @@
         <v>191</v>
       </c>
       <c r="BU93" s="85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BV93" s="29">
         <v>1</v>
@@ -7725,7 +7718,7 @@
         <v>191</v>
       </c>
       <c r="BU94" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BV94" s="29">
         <v>1</v>
@@ -7944,7 +7937,7 @@
         <v>191</v>
       </c>
       <c r="BU95" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BV95" s="29">
         <v>1</v>
@@ -10501,1207 +10494,1207 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="147" customFormat="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="150" t="s">
+    <row r="4" spans="1:74" s="146" customFormat="1">
+      <c r="A4" s="147"/>
+      <c r="B4" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="148" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="148" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="149" t="s">
+      <c r="L4" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="149" t="s">
+      <c r="M4" s="148" t="s">
         <v>271</v>
       </c>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="149" t="s">
+      <c r="O4" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="P4" s="149" t="s">
+      <c r="P4" s="148" t="s">
         <v>274</v>
       </c>
-      <c r="Q4" s="149" t="s">
+      <c r="Q4" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="149" t="s">
+      <c r="R4" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="U4" s="149" t="s">
+      <c r="U4" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="149" t="s">
+      <c r="V4" s="148" t="s">
         <v>279</v>
       </c>
-      <c r="W4" s="149" t="s">
+      <c r="W4" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="X4" s="149" t="s">
+      <c r="X4" s="148" t="s">
         <v>281</v>
       </c>
-      <c r="Y4" s="149" t="s">
+      <c r="Y4" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="Z4" s="149" t="s">
+      <c r="Z4" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="AA4" s="149" t="s">
+      <c r="AA4" s="148" t="s">
         <v>284</v>
       </c>
-      <c r="AB4" s="149" t="s">
+      <c r="AB4" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="148" t="s">
         <v>286</v>
       </c>
-      <c r="AD4" s="149" t="s">
+      <c r="AD4" s="148" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="149" t="s">
+      <c r="AE4" s="148" t="s">
         <v>288</v>
       </c>
-      <c r="AF4" s="149" t="s">
+      <c r="AF4" s="148" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="147" customFormat="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="151" t="s">
+    <row r="5" spans="1:74" s="146" customFormat="1">
+      <c r="A5" s="154"/>
+      <c r="B5" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="151" t="s">
+      <c r="F5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="150" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="151" t="s">
+      <c r="H5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="K5" s="151" t="s">
+      <c r="K5" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="M5" s="151" t="s">
+      <c r="M5" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="N5" s="151" t="s">
+      <c r="N5" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="151" t="s">
+      <c r="O5" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="Q5" s="151" t="s">
+      <c r="Q5" s="150" t="s">
         <v>362</v>
       </c>
-      <c r="R5" s="151" t="s">
+      <c r="R5" s="150" t="s">
         <v>363</v>
       </c>
-      <c r="S5" s="151" t="s">
+      <c r="S5" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="151" t="s">
+      <c r="T5" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="151" t="s">
+      <c r="U5" s="150" t="s">
+        <v>560</v>
+      </c>
+      <c r="V5" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA5" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB5" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC5" s="150" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE5" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="150" t="s">
         <v>561</v>
       </c>
-      <c r="V5" s="151" t="s">
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
+      <c r="AX5" s="156"/>
+      <c r="AY5" s="156"/>
+      <c r="AZ5" s="156"/>
+      <c r="BA5" s="156"/>
+      <c r="BB5" s="156"/>
+      <c r="BC5" s="156"/>
+      <c r="BD5" s="156"/>
+      <c r="BE5" s="156"/>
+      <c r="BF5" s="156"/>
+      <c r="BG5" s="156"/>
+      <c r="BH5" s="156"/>
+      <c r="BI5" s="156"/>
+      <c r="BJ5" s="156"/>
+      <c r="BK5" s="156"/>
+      <c r="BL5" s="156"/>
+      <c r="BM5" s="156"/>
+      <c r="BN5" s="156"/>
+      <c r="BO5" s="156"/>
+      <c r="BP5" s="156"/>
+      <c r="BQ5" s="156"/>
+      <c r="BR5" s="156"/>
+      <c r="BS5" s="156"/>
+      <c r="BT5" s="156"/>
+      <c r="BU5" s="156"/>
+      <c r="BV5" s="156"/>
+    </row>
+    <row r="6" spans="1:74" s="146" customFormat="1">
+      <c r="A6" s="154"/>
+      <c r="B6" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="151" t="s">
+      <c r="F6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>562</v>
+      </c>
+      <c r="J6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="150" t="s">
+        <v>385</v>
+      </c>
+      <c r="N6" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="R6" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="S6" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="150" t="s">
+        <v>563</v>
+      </c>
+      <c r="V6" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="X5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y5" s="151" t="s">
+      <c r="X6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y6" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" s="151" t="s">
+      <c r="Z6" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="AA5" s="151" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB5" s="151" t="s">
+      <c r="AA6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE6" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6" s="150" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
+      <c r="AX6" s="156"/>
+      <c r="AY6" s="156"/>
+      <c r="AZ6" s="156"/>
+      <c r="BA6" s="156"/>
+      <c r="BB6" s="156"/>
+      <c r="BC6" s="156"/>
+      <c r="BD6" s="156"/>
+      <c r="BE6" s="156"/>
+      <c r="BF6" s="156"/>
+      <c r="BG6" s="156"/>
+      <c r="BH6" s="156"/>
+      <c r="BI6" s="156"/>
+      <c r="BJ6" s="156"/>
+      <c r="BK6" s="156"/>
+      <c r="BL6" s="156"/>
+      <c r="BM6" s="156"/>
+      <c r="BN6" s="156"/>
+      <c r="BO6" s="156"/>
+      <c r="BP6" s="156"/>
+      <c r="BQ6" s="156"/>
+      <c r="BR6" s="156"/>
+      <c r="BS6" s="156"/>
+      <c r="BT6" s="156"/>
+      <c r="BU6" s="156"/>
+      <c r="BV6" s="156"/>
+    </row>
+    <row r="7" spans="1:74" s="146" customFormat="1">
+      <c r="A7" s="154"/>
+      <c r="B7" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>565</v>
+      </c>
+      <c r="J7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="150" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="AC5" s="151" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE5" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF5" s="151" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="157"/>
-      <c r="AT5" s="157"/>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="157"/>
-      <c r="BA5" s="157"/>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="157"/>
-      <c r="BH5" s="157"/>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="157"/>
-      <c r="BO5" s="157"/>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="157"/>
-      <c r="BV5" s="157"/>
-    </row>
-    <row r="6" spans="1:74" s="147" customFormat="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="151" t="s">
+      <c r="O7" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q7" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="V7" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE7" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF7" s="150" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
+      <c r="AX7" s="156"/>
+      <c r="AY7" s="156"/>
+      <c r="AZ7" s="156"/>
+      <c r="BA7" s="156"/>
+      <c r="BB7" s="156"/>
+      <c r="BC7" s="156"/>
+      <c r="BD7" s="156"/>
+      <c r="BE7" s="156"/>
+      <c r="BF7" s="156"/>
+      <c r="BG7" s="156"/>
+      <c r="BH7" s="156"/>
+      <c r="BI7" s="156"/>
+      <c r="BJ7" s="156"/>
+      <c r="BK7" s="156"/>
+      <c r="BL7" s="156"/>
+      <c r="BM7" s="156"/>
+      <c r="BN7" s="156"/>
+      <c r="BO7" s="156"/>
+      <c r="BP7" s="156"/>
+      <c r="BQ7" s="156"/>
+      <c r="BR7" s="156"/>
+      <c r="BS7" s="156"/>
+      <c r="BT7" s="156"/>
+      <c r="BU7" s="156"/>
+      <c r="BV7" s="156"/>
+    </row>
+    <row r="8" spans="1:74" s="146" customFormat="1">
+      <c r="A8" s="154"/>
+      <c r="B8" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="150" t="s">
+        <v>569</v>
+      </c>
+      <c r="N8" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="R8" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="S8" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="T8" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="150" t="s">
+        <v>570</v>
+      </c>
+      <c r="V8" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="W8" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z8" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE8" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF8" s="150" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
+      <c r="AX8" s="156"/>
+      <c r="AY8" s="156"/>
+      <c r="AZ8" s="156"/>
+      <c r="BA8" s="156"/>
+      <c r="BB8" s="156"/>
+      <c r="BC8" s="156"/>
+      <c r="BD8" s="156"/>
+      <c r="BE8" s="156"/>
+      <c r="BF8" s="156"/>
+      <c r="BG8" s="156"/>
+      <c r="BH8" s="156"/>
+      <c r="BI8" s="156"/>
+      <c r="BJ8" s="156"/>
+      <c r="BK8" s="156"/>
+      <c r="BL8" s="156"/>
+      <c r="BM8" s="156"/>
+      <c r="BN8" s="156"/>
+      <c r="BO8" s="156"/>
+      <c r="BP8" s="156"/>
+      <c r="BQ8" s="156"/>
+      <c r="BR8" s="156"/>
+      <c r="BS8" s="156"/>
+      <c r="BT8" s="156"/>
+      <c r="BU8" s="156"/>
+      <c r="BV8" s="156"/>
+    </row>
+    <row r="9" spans="1:74" s="146" customFormat="1">
+      <c r="B9" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="150" t="s">
+        <v>576</v>
+      </c>
+      <c r="H9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="150" t="s">
+        <v>574</v>
+      </c>
+      <c r="M9" s="150" t="s">
+        <v>575</v>
+      </c>
+      <c r="N9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="R9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="T9" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" s="150" t="s">
+        <v>364</v>
+      </c>
+      <c r="V9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="W9" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" s="150" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC9" s="150" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE9" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF9" s="150" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="154"/>
+      <c r="AN9" s="154"/>
+      <c r="AO9" s="154"/>
+      <c r="AP9" s="154"/>
+      <c r="AQ9" s="154"/>
+      <c r="AR9" s="154"/>
+      <c r="AS9" s="154"/>
+      <c r="AT9" s="154"/>
+      <c r="AU9" s="154"/>
+      <c r="AV9" s="154"/>
+      <c r="AW9" s="154"/>
+      <c r="AX9" s="154"/>
+      <c r="AY9" s="154"/>
+      <c r="AZ9" s="154"/>
+      <c r="BA9" s="154"/>
+      <c r="BB9" s="154"/>
+      <c r="BC9" s="154"/>
+      <c r="BD9" s="154"/>
+      <c r="BE9" s="154"/>
+      <c r="BF9" s="154"/>
+      <c r="BG9" s="154"/>
+      <c r="BH9" s="154"/>
+      <c r="BI9" s="154"/>
+      <c r="BJ9" s="154"/>
+      <c r="BK9" s="154"/>
+      <c r="BL9" s="154"/>
+      <c r="BM9" s="154"/>
+      <c r="BN9" s="154"/>
+      <c r="BO9" s="154"/>
+      <c r="BP9" s="154"/>
+      <c r="BQ9" s="154"/>
+      <c r="BR9" s="154"/>
+      <c r="BS9" s="154"/>
+      <c r="BT9" s="154"/>
+      <c r="BU9" s="154"/>
+      <c r="BV9" s="154"/>
+    </row>
+    <row r="10" spans="1:74" s="152" customFormat="1">
+      <c r="A10" s="159"/>
+      <c r="B10" s="157" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="158" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="157" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="157" t="s">
+        <v>581</v>
+      </c>
+      <c r="J10" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="157" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="157" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" s="157" t="s">
+        <v>360</v>
+      </c>
+      <c r="N10" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" s="157" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="157" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="R10" s="157" t="s">
+        <v>363</v>
+      </c>
+      <c r="S10" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="157" t="s">
+        <v>364</v>
+      </c>
+      <c r="V10" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="W10" s="157" t="s">
+        <v>365</v>
+      </c>
+      <c r="X10" s="158" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y10" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA10" s="157" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB10" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="H6" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="J6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="N6" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="O6" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="P6" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q6" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="R6" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="S6" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="T6" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="U6" s="151" t="s">
-        <v>564</v>
-      </c>
-      <c r="V6" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y6" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z6" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE6" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="151" t="s">
-        <v>565</v>
-      </c>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="157"/>
-      <c r="AQ6" s="157"/>
-      <c r="AR6" s="157"/>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="157"/>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="157"/>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="157"/>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="157"/>
-      <c r="BA6" s="157"/>
-      <c r="BB6" s="157"/>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="157"/>
-      <c r="BE6" s="157"/>
-      <c r="BF6" s="157"/>
-      <c r="BG6" s="157"/>
-      <c r="BH6" s="157"/>
-      <c r="BI6" s="157"/>
-      <c r="BJ6" s="157"/>
-      <c r="BK6" s="157"/>
-      <c r="BL6" s="157"/>
-      <c r="BM6" s="157"/>
-      <c r="BN6" s="157"/>
-      <c r="BO6" s="157"/>
-      <c r="BP6" s="157"/>
-      <c r="BQ6" s="157"/>
-      <c r="BR6" s="157"/>
-      <c r="BS6" s="157"/>
-      <c r="BT6" s="157"/>
-      <c r="BU6" s="157"/>
-      <c r="BV6" s="157"/>
-    </row>
-    <row r="7" spans="1:74" s="147" customFormat="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="151" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="H7" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="I7" s="151" t="s">
-        <v>566</v>
-      </c>
-      <c r="J7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="S7" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="T7" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="U7" s="151" t="s">
-        <v>567</v>
-      </c>
-      <c r="V7" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z7" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE7" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF7" s="151" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="157"/>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="157"/>
-      <c r="AV7" s="157"/>
-      <c r="AW7" s="157"/>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="157"/>
-      <c r="BE7" s="157"/>
-      <c r="BF7" s="157"/>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="157"/>
-      <c r="BN7" s="157"/>
-      <c r="BO7" s="157"/>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="157"/>
-      <c r="BU7" s="157"/>
-      <c r="BV7" s="157"/>
-    </row>
-    <row r="8" spans="1:74" s="147" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="151" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="I8" s="151" t="s">
-        <v>569</v>
-      </c>
-      <c r="J8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="151" t="s">
-        <v>570</v>
-      </c>
-      <c r="N8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="R8" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="S8" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="T8" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="U8" s="151" t="s">
-        <v>571</v>
-      </c>
-      <c r="V8" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="W8" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y8" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z8" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC8" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE8" s="151" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF8" s="151" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="157"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="157"/>
-      <c r="AP8" s="157"/>
-      <c r="AQ8" s="157"/>
-      <c r="AR8" s="157"/>
-      <c r="AS8" s="157"/>
-      <c r="AT8" s="157"/>
-      <c r="AU8" s="157"/>
-      <c r="AV8" s="157"/>
-      <c r="AW8" s="157"/>
-      <c r="AX8" s="157"/>
-      <c r="AY8" s="157"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
-      <c r="BC8" s="157"/>
-      <c r="BD8" s="157"/>
-      <c r="BE8" s="157"/>
-      <c r="BF8" s="157"/>
-      <c r="BG8" s="157"/>
-      <c r="BH8" s="157"/>
-      <c r="BI8" s="157"/>
-      <c r="BJ8" s="157"/>
-      <c r="BK8" s="157"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="157"/>
-      <c r="BN8" s="157"/>
-      <c r="BO8" s="157"/>
-      <c r="BP8" s="157"/>
-      <c r="BQ8" s="157"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="157"/>
-      <c r="BT8" s="157"/>
-      <c r="BU8" s="157"/>
-      <c r="BV8" s="157"/>
-    </row>
-    <row r="9" spans="1:74" s="147" customFormat="1">
-      <c r="B9" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>577</v>
-      </c>
-      <c r="H9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="151" t="s">
-        <v>578</v>
-      </c>
-      <c r="J9" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="151" t="s">
-        <v>575</v>
-      </c>
-      <c r="M9" s="151" t="s">
-        <v>576</v>
-      </c>
-      <c r="N9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="O9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="P9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="R9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="S9" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="T9" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="U9" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="V9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="W9" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y9" s="151" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC9" s="151" t="s">
-        <v>579</v>
-      </c>
-      <c r="AD9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE9" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF9" s="151" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="155"/>
-      <c r="AL9" s="155"/>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155"/>
-      <c r="AO9" s="155"/>
-      <c r="AP9" s="155"/>
-      <c r="AQ9" s="155"/>
-      <c r="AR9" s="155"/>
-      <c r="AS9" s="155"/>
-      <c r="AT9" s="155"/>
-      <c r="AU9" s="155"/>
-      <c r="AV9" s="155"/>
-      <c r="AW9" s="155"/>
-      <c r="AX9" s="155"/>
-      <c r="AY9" s="155"/>
-      <c r="AZ9" s="155"/>
-      <c r="BA9" s="155"/>
-      <c r="BB9" s="155"/>
-      <c r="BC9" s="155"/>
-      <c r="BD9" s="155"/>
-      <c r="BE9" s="155"/>
-      <c r="BF9" s="155"/>
-      <c r="BG9" s="155"/>
-      <c r="BH9" s="155"/>
-      <c r="BI9" s="155"/>
-      <c r="BJ9" s="155"/>
-      <c r="BK9" s="155"/>
-      <c r="BL9" s="155"/>
-      <c r="BM9" s="155"/>
-      <c r="BN9" s="155"/>
-      <c r="BO9" s="155"/>
-      <c r="BP9" s="155"/>
-      <c r="BQ9" s="155"/>
-      <c r="BR9" s="155"/>
-      <c r="BS9" s="155"/>
-      <c r="BT9" s="155"/>
-      <c r="BU9" s="155"/>
-      <c r="BV9" s="155"/>
-    </row>
-    <row r="10" spans="1:74" s="153" customFormat="1">
-      <c r="A10" s="160"/>
-      <c r="B10" s="158" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="158" t="s">
-        <v>581</v>
-      </c>
-      <c r="H10" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="158" t="s">
-        <v>582</v>
-      </c>
-      <c r="J10" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="K10" s="158" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="158" t="s">
-        <v>359</v>
-      </c>
-      <c r="M10" s="158" t="s">
-        <v>360</v>
-      </c>
-      <c r="N10" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="O10" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="P10" s="158" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="158" t="s">
-        <v>362</v>
-      </c>
-      <c r="R10" s="158" t="s">
-        <v>363</v>
-      </c>
-      <c r="S10" s="158" t="s">
-        <v>206</v>
-      </c>
-      <c r="T10" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="U10" s="158" t="s">
-        <v>364</v>
-      </c>
-      <c r="V10" s="158" t="s">
-        <v>252</v>
-      </c>
-      <c r="W10" s="158" t="s">
-        <v>365</v>
-      </c>
-      <c r="X10" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y10" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="158" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA10" s="158" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB10" s="158" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC10" s="158" t="s">
+      <c r="AC10" s="157" t="s">
         <v>366</v>
       </c>
-      <c r="AD10" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE10" s="158" t="s">
+      <c r="AD10" s="158" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" s="157" t="s">
         <v>367</v>
       </c>
-      <c r="AF10" s="158" t="s">
+      <c r="AF10" s="157" t="s">
         <v>368</v>
       </c>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
-      <c r="AM10" s="160"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="160"/>
-      <c r="BA10" s="160"/>
-      <c r="BB10" s="160"/>
-      <c r="BC10" s="160"/>
-      <c r="BD10" s="160"/>
-      <c r="BE10" s="160"/>
-      <c r="BF10" s="160"/>
-      <c r="BG10" s="160"/>
-      <c r="BH10" s="160"/>
-      <c r="BI10" s="160"/>
-      <c r="BJ10" s="160"/>
-      <c r="BK10" s="160"/>
-      <c r="BL10" s="160"/>
-      <c r="BM10" s="160"/>
-      <c r="BN10" s="160"/>
-      <c r="BO10" s="160"/>
-      <c r="BP10" s="160"/>
-      <c r="BQ10" s="160"/>
-      <c r="BR10" s="160"/>
-      <c r="BS10" s="160"/>
-      <c r="BT10" s="160"/>
-      <c r="BU10" s="160"/>
-      <c r="BV10" s="160"/>
-    </row>
-    <row r="11" spans="1:74" s="153" customFormat="1" ht="12"/>
-    <row r="12" spans="1:74" s="153" customFormat="1" ht="14.25">
-      <c r="A12" s="154" t="s">
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="159"/>
+      <c r="AK10" s="159"/>
+      <c r="AL10" s="159"/>
+      <c r="AM10" s="159"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="159"/>
+      <c r="AQ10" s="159"/>
+      <c r="AR10" s="159"/>
+      <c r="AS10" s="159"/>
+      <c r="AT10" s="159"/>
+      <c r="AU10" s="159"/>
+      <c r="AV10" s="159"/>
+      <c r="AW10" s="159"/>
+      <c r="AX10" s="159"/>
+      <c r="AY10" s="159"/>
+      <c r="AZ10" s="159"/>
+      <c r="BA10" s="159"/>
+      <c r="BB10" s="159"/>
+      <c r="BC10" s="159"/>
+      <c r="BD10" s="159"/>
+      <c r="BE10" s="159"/>
+      <c r="BF10" s="159"/>
+      <c r="BG10" s="159"/>
+      <c r="BH10" s="159"/>
+      <c r="BI10" s="159"/>
+      <c r="BJ10" s="159"/>
+      <c r="BK10" s="159"/>
+      <c r="BL10" s="159"/>
+      <c r="BM10" s="159"/>
+      <c r="BN10" s="159"/>
+      <c r="BO10" s="159"/>
+      <c r="BP10" s="159"/>
+      <c r="BQ10" s="159"/>
+      <c r="BR10" s="159"/>
+      <c r="BS10" s="159"/>
+      <c r="BT10" s="159"/>
+      <c r="BU10" s="159"/>
+      <c r="BV10" s="159"/>
+    </row>
+    <row r="11" spans="1:74" s="152" customFormat="1" ht="12"/>
+    <row r="12" spans="1:74" s="152" customFormat="1" ht="14.25">
+      <c r="A12" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="154" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="155"/>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="155"/>
-      <c r="AK12" s="155"/>
-      <c r="AL12" s="155"/>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="155"/>
-      <c r="AO12" s="155"/>
-      <c r="AP12" s="155"/>
-      <c r="AQ12" s="155"/>
-      <c r="AR12" s="155"/>
-      <c r="AS12" s="155"/>
-      <c r="AT12" s="155"/>
-      <c r="AU12" s="155"/>
-      <c r="AV12" s="155"/>
-      <c r="AW12" s="155"/>
-      <c r="AX12" s="155"/>
-      <c r="AY12" s="155"/>
-      <c r="AZ12" s="155"/>
-      <c r="BA12" s="155"/>
-      <c r="BB12" s="155"/>
-      <c r="BC12" s="155"/>
-      <c r="BD12" s="155"/>
-      <c r="BE12" s="155"/>
-      <c r="BF12" s="155"/>
-      <c r="BG12" s="155"/>
-      <c r="BH12" s="155"/>
-      <c r="BI12" s="155"/>
-      <c r="BJ12" s="155"/>
-      <c r="BK12" s="155"/>
-      <c r="BL12" s="155"/>
-      <c r="BM12" s="155"/>
-      <c r="BN12" s="155"/>
-      <c r="BO12" s="155"/>
-      <c r="BP12" s="155"/>
-      <c r="BQ12" s="155"/>
-      <c r="BR12" s="155"/>
-      <c r="BS12" s="155"/>
-      <c r="BT12" s="155"/>
-      <c r="BU12" s="155"/>
-      <c r="BV12" s="155"/>
-    </row>
-    <row r="13" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B13" s="156" t="s">
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="154"/>
+      <c r="AK12" s="154"/>
+      <c r="AL12" s="154"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
+      <c r="AQ12" s="154"/>
+      <c r="AR12" s="154"/>
+      <c r="AS12" s="154"/>
+      <c r="AT12" s="154"/>
+      <c r="AU12" s="154"/>
+      <c r="AV12" s="154"/>
+      <c r="AW12" s="154"/>
+      <c r="AX12" s="154"/>
+      <c r="AY12" s="154"/>
+      <c r="AZ12" s="154"/>
+      <c r="BA12" s="154"/>
+      <c r="BB12" s="154"/>
+      <c r="BC12" s="154"/>
+      <c r="BD12" s="154"/>
+      <c r="BE12" s="154"/>
+      <c r="BF12" s="154"/>
+      <c r="BG12" s="154"/>
+      <c r="BH12" s="154"/>
+      <c r="BI12" s="154"/>
+      <c r="BJ12" s="154"/>
+      <c r="BK12" s="154"/>
+      <c r="BL12" s="154"/>
+      <c r="BM12" s="154"/>
+      <c r="BN12" s="154"/>
+      <c r="BO12" s="154"/>
+      <c r="BP12" s="154"/>
+      <c r="BQ12" s="154"/>
+      <c r="BR12" s="154"/>
+      <c r="BS12" s="154"/>
+      <c r="BT12" s="154"/>
+      <c r="BU12" s="154"/>
+      <c r="BV12" s="154"/>
+    </row>
+    <row r="13" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B13" s="155" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B14" s="150" t="s">
+    <row r="14" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B14" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="148" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="148" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B15" s="151" t="s">
+    <row r="15" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B15" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="151" t="s">
+      <c r="D15" s="150" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="147" customFormat="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="151" t="s">
+    <row r="16" spans="1:74" s="146" customFormat="1">
+      <c r="A16" s="156"/>
+      <c r="B16" s="150" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="157"/>
-      <c r="AQ16" s="157"/>
-      <c r="AR16" s="157"/>
-      <c r="AS16" s="157"/>
-      <c r="AT16" s="157"/>
-      <c r="AU16" s="157"/>
-      <c r="AV16" s="157"/>
-      <c r="AW16" s="157"/>
-      <c r="AX16" s="157"/>
-      <c r="AY16" s="157"/>
-      <c r="AZ16" s="157"/>
-      <c r="BA16" s="157"/>
-      <c r="BB16" s="157"/>
-      <c r="BC16" s="157"/>
-      <c r="BD16" s="157"/>
-      <c r="BE16" s="157"/>
-      <c r="BF16" s="157"/>
-      <c r="BG16" s="157"/>
-      <c r="BH16" s="157"/>
-      <c r="BI16" s="157"/>
-      <c r="BJ16" s="157"/>
-      <c r="BK16" s="157"/>
-      <c r="BL16" s="157"/>
-      <c r="BM16" s="157"/>
-      <c r="BN16" s="157"/>
-      <c r="BO16" s="157"/>
-      <c r="BP16" s="157"/>
-      <c r="BQ16" s="157"/>
-      <c r="BR16" s="157"/>
-      <c r="BS16" s="157"/>
-      <c r="BT16" s="157"/>
-      <c r="BU16" s="157"/>
-      <c r="BV16" s="157"/>
-    </row>
-    <row r="17" spans="1:74" s="147" customFormat="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="151" t="s">
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="156"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
+      <c r="AQ16" s="156"/>
+      <c r="AR16" s="156"/>
+      <c r="AS16" s="156"/>
+      <c r="AT16" s="156"/>
+      <c r="AU16" s="156"/>
+      <c r="AV16" s="156"/>
+      <c r="AW16" s="156"/>
+      <c r="AX16" s="156"/>
+      <c r="AY16" s="156"/>
+      <c r="AZ16" s="156"/>
+      <c r="BA16" s="156"/>
+      <c r="BB16" s="156"/>
+      <c r="BC16" s="156"/>
+      <c r="BD16" s="156"/>
+      <c r="BE16" s="156"/>
+      <c r="BF16" s="156"/>
+      <c r="BG16" s="156"/>
+      <c r="BH16" s="156"/>
+      <c r="BI16" s="156"/>
+      <c r="BJ16" s="156"/>
+      <c r="BK16" s="156"/>
+      <c r="BL16" s="156"/>
+      <c r="BM16" s="156"/>
+      <c r="BN16" s="156"/>
+      <c r="BO16" s="156"/>
+      <c r="BP16" s="156"/>
+      <c r="BQ16" s="156"/>
+      <c r="BR16" s="156"/>
+      <c r="BS16" s="156"/>
+      <c r="BT16" s="156"/>
+      <c r="BU16" s="156"/>
+      <c r="BV16" s="156"/>
+    </row>
+    <row r="17" spans="1:74" s="146" customFormat="1">
+      <c r="A17" s="156"/>
+      <c r="B17" s="150" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="150" t="s">
         <v>392</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="157"/>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="157"/>
-      <c r="AP17" s="157"/>
-      <c r="AQ17" s="157"/>
-      <c r="AR17" s="157"/>
-      <c r="AS17" s="157"/>
-      <c r="AT17" s="157"/>
-      <c r="AU17" s="157"/>
-      <c r="AV17" s="157"/>
-      <c r="AW17" s="157"/>
-      <c r="AX17" s="157"/>
-      <c r="AY17" s="157"/>
-      <c r="AZ17" s="157"/>
-      <c r="BA17" s="157"/>
-      <c r="BB17" s="157"/>
-      <c r="BC17" s="157"/>
-      <c r="BD17" s="157"/>
-      <c r="BE17" s="157"/>
-      <c r="BF17" s="157"/>
-      <c r="BG17" s="157"/>
-      <c r="BH17" s="157"/>
-      <c r="BI17" s="157"/>
-      <c r="BJ17" s="157"/>
-      <c r="BK17" s="157"/>
-      <c r="BL17" s="157"/>
-      <c r="BM17" s="157"/>
-      <c r="BN17" s="157"/>
-      <c r="BO17" s="157"/>
-      <c r="BP17" s="157"/>
-      <c r="BQ17" s="157"/>
-      <c r="BR17" s="157"/>
-      <c r="BS17" s="157"/>
-      <c r="BT17" s="157"/>
-      <c r="BU17" s="157"/>
-      <c r="BV17" s="157"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="156"/>
+      <c r="AH17" s="156"/>
+      <c r="AI17" s="156"/>
+      <c r="AJ17" s="156"/>
+      <c r="AK17" s="156"/>
+      <c r="AL17" s="156"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="156"/>
+      <c r="AO17" s="156"/>
+      <c r="AP17" s="156"/>
+      <c r="AQ17" s="156"/>
+      <c r="AR17" s="156"/>
+      <c r="AS17" s="156"/>
+      <c r="AT17" s="156"/>
+      <c r="AU17" s="156"/>
+      <c r="AV17" s="156"/>
+      <c r="AW17" s="156"/>
+      <c r="AX17" s="156"/>
+      <c r="AY17" s="156"/>
+      <c r="AZ17" s="156"/>
+      <c r="BA17" s="156"/>
+      <c r="BB17" s="156"/>
+      <c r="BC17" s="156"/>
+      <c r="BD17" s="156"/>
+      <c r="BE17" s="156"/>
+      <c r="BF17" s="156"/>
+      <c r="BG17" s="156"/>
+      <c r="BH17" s="156"/>
+      <c r="BI17" s="156"/>
+      <c r="BJ17" s="156"/>
+      <c r="BK17" s="156"/>
+      <c r="BL17" s="156"/>
+      <c r="BM17" s="156"/>
+      <c r="BN17" s="156"/>
+      <c r="BO17" s="156"/>
+      <c r="BP17" s="156"/>
+      <c r="BQ17" s="156"/>
+      <c r="BR17" s="156"/>
+      <c r="BS17" s="156"/>
+      <c r="BT17" s="156"/>
+      <c r="BU17" s="156"/>
+      <c r="BV17" s="156"/>
     </row>
     <row r="18" spans="1:74" s="84" customFormat="1" ht="12">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="160" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="160" t="s">
         <v>263</v>
       </c>
     </row>
@@ -11715,8 +11708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11757,15 +11750,15 @@
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" s="162" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="161" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="130" t="s">
         <v>540</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>541</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
@@ -11792,11 +11785,11 @@
       <c r="AC5" s="90"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="162"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" s="161"/>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
@@ -11820,19 +11813,19 @@
       <c r="AC6" s="90"/>
     </row>
     <row r="7" spans="1:29" s="8" customFormat="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162" t="s">
-        <v>584</v>
-      </c>
-      <c r="C7" s="162"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="161" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="161"/>
       <c r="D7" s="130" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E7" s="130" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="130" t="s">
         <v>542</v>
-      </c>
-      <c r="F7" s="130" t="s">
-        <v>543</v>
       </c>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
@@ -11857,19 +11850,19 @@
       <c r="AC7" s="90"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="162"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="161"/>
       <c r="D8" s="130" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="130" t="s">
         <v>550</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>551</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>552</v>
       </c>
       <c r="H8" s="119"/>
       <c r="I8" s="119"/>
@@ -11894,11 +11887,11 @@
       <c r="AC8" s="90"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162" t="s">
-        <v>586</v>
-      </c>
-      <c r="C9" s="162"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="161"/>
       <c r="H9" s="119"/>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
@@ -11922,19 +11915,19 @@
       <c r="AC9" s="90"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="162"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="161" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="161"/>
       <c r="D10" s="130" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" s="130" t="s">
         <v>553</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="F10" s="130" t="s">
         <v>554</v>
-      </c>
-      <c r="F10" s="130" t="s">
-        <v>555</v>
       </c>
       <c r="H10" s="119"/>
       <c r="I10" s="119"/>
@@ -11959,19 +11952,19 @@
       <c r="AC10" s="90"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162" t="s">
-        <v>588</v>
-      </c>
-      <c r="C11" s="162"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="161" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" s="161"/>
       <c r="D11" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" s="130" t="s">
         <v>558</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="F11" s="130" t="s">
         <v>559</v>
-      </c>
-      <c r="F11" s="130" t="s">
-        <v>560</v>
       </c>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
@@ -11996,9 +11989,9 @@
       <c r="AC11" s="90"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="162"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="130"/>
       <c r="E12" s="130"/>
       <c r="F12" s="130"/>
@@ -12025,9 +12018,9 @@
       <c r="AC12" s="90"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
       <c r="H13" s="119"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
@@ -12267,11 +12260,11 @@
       <c r="A3" s="57"/>
     </row>
     <row r="4" spans="1:4" s="86" customFormat="1" ht="14.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="147" t="s">
-        <v>590</v>
+      <c r="B4" s="146" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
@@ -12315,8 +12308,8 @@
       <c r="A9" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="147" t="s">
-        <v>591</v>
+      <c r="B9" s="146" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="58" customFormat="1" ht="14.25">
@@ -12348,8 +12341,8 @@
       <c r="A13" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="147" t="s">
-        <v>592</v>
+      <c r="B13" s="146" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="58" customFormat="1" ht="14.25">
@@ -12381,8 +12374,8 @@
       <c r="A17" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="147" t="s">
-        <v>593</v>
+      <c r="B17" s="146" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="58" customFormat="1" ht="14.25">
@@ -12393,7 +12386,7 @@
         <v>261</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>395</v>
@@ -12414,8 +12407,8 @@
       <c r="A21" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>594</v>
+      <c r="B21" s="146" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="58" customFormat="1" ht="14.25">
@@ -12447,8 +12440,8 @@
       <c r="A25" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B25" s="147" t="s">
-        <v>595</v>
+      <c r="B25" s="146" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12477,8 +12470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12739,8 +12732,8 @@
       <c r="A24" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="B24" s="136" t="s">
-        <v>596</v>
+      <c r="B24" s="146" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -12872,10 +12865,10 @@
       <c r="AD4" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="139" t="s">
+      <c r="AE4" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="AF4" s="139" t="s">
+      <c r="AF4" s="138" t="s">
         <v>289</v>
       </c>
     </row>
@@ -12917,28 +12910,28 @@
       <c r="M5" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="139" t="s">
+      <c r="P5" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="Q5" s="139" t="s">
+      <c r="Q5" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="R5" s="139" t="s">
+      <c r="R5" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="S5" s="139" t="s">
+      <c r="S5" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="139" t="s">
+      <c r="T5" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="139" t="s">
+      <c r="U5" s="138" t="s">
         <v>364</v>
       </c>
       <c r="V5" s="74" t="s">
@@ -12954,7 +12947,7 @@
         <v>124</v>
       </c>
       <c r="Z5" s="85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA5" s="81" t="s">
         <v>404</v>
@@ -12968,10 +12961,10 @@
       <c r="AD5" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="139" t="s">
+      <c r="AE5" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="AF5" s="139" t="s">
+      <c r="AF5" s="138" t="s">
         <v>368</v>
       </c>
       <c r="AG5" s="77"/>
@@ -13022,10 +13015,10 @@
       <c r="B6" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="138" t="s">
         <v>180</v>
       </c>
       <c r="E6" s="131" t="s">
@@ -13055,29 +13048,29 @@
       <c r="M6" s="131" t="s">
         <v>385</v>
       </c>
-      <c r="N6" s="139" t="s">
+      <c r="N6" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="139" t="s">
+      <c r="O6" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="P6" s="139" t="s">
+      <c r="P6" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="Q6" s="139" t="s">
+      <c r="Q6" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="R6" s="139" t="s">
+      <c r="R6" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="S6" s="139" t="s">
+      <c r="S6" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="T6" s="139" t="s">
+      <c r="T6" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="U6" s="139" t="s">
-        <v>561</v>
+      <c r="U6" s="138" t="s">
+        <v>560</v>
       </c>
       <c r="V6" s="131" t="s">
         <v>77</v>
@@ -13109,8 +13102,8 @@
       <c r="AE6" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="AF6" s="139" t="s">
-        <v>562</v>
+      <c r="AF6" s="138" t="s">
+        <v>561</v>
       </c>
       <c r="AG6" s="134"/>
       <c r="AH6" s="134"/>
@@ -13160,10 +13153,10 @@
       <c r="B7" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="138" t="s">
         <v>180</v>
       </c>
       <c r="E7" s="131" t="s">
@@ -13178,49 +13171,49 @@
       <c r="H7" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="138" t="s">
+        <v>562</v>
+      </c>
+      <c r="J7" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q7" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="138" t="s">
         <v>563</v>
       </c>
-      <c r="J7" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="139" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="S7" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="T7" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="U7" s="139" t="s">
-        <v>564</v>
-      </c>
-      <c r="V7" s="139" t="s">
+      <c r="V7" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="W7" s="139" t="s">
+      <c r="W7" s="138" t="s">
         <v>365</v>
       </c>
       <c r="X7" s="132" t="s">
@@ -13244,11 +13237,11 @@
       <c r="AD7" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="AE7" s="139" t="s">
+      <c r="AE7" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="AF7" s="139" t="s">
-        <v>565</v>
+      <c r="AF7" s="138" t="s">
+        <v>564</v>
       </c>
       <c r="AG7" s="134"/>
       <c r="AH7" s="134"/>
@@ -13298,10 +13291,10 @@
       <c r="B8" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="138" t="s">
         <v>180</v>
       </c>
       <c r="E8" s="131" t="s">
@@ -13316,55 +13309,55 @@
       <c r="H8" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="J8" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="N8" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="R8" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="S8" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="T8" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="138" t="s">
         <v>566</v>
       </c>
-      <c r="J8" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="139" t="s">
-        <v>385</v>
-      </c>
-      <c r="N8" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="R8" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="S8" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="T8" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="U8" s="139" t="s">
-        <v>567</v>
-      </c>
-      <c r="V8" s="139" t="s">
+      <c r="V8" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="139" t="s">
+      <c r="W8" s="138" t="s">
         <v>365</v>
       </c>
       <c r="X8" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="Y8" s="140" t="s">
+      <c r="Y8" s="139" t="s">
         <v>191</v>
       </c>
       <c r="Z8" s="131" t="s">
@@ -13382,11 +13375,11 @@
       <c r="AD8" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="AE8" s="139" t="s">
+      <c r="AE8" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="AF8" s="139" t="s">
-        <v>568</v>
+      <c r="AF8" s="138" t="s">
+        <v>567</v>
       </c>
       <c r="AG8" s="134"/>
       <c r="AH8" s="134"/>
@@ -13436,10 +13429,10 @@
       <c r="B9" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="138" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="131" t="s">
@@ -13454,8 +13447,8 @@
       <c r="H9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="139" t="s">
-        <v>569</v>
+      <c r="I9" s="138" t="s">
+        <v>568</v>
       </c>
       <c r="J9" s="131" t="s">
         <v>246</v>
@@ -13466,43 +13459,43 @@
       <c r="L9" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="139" t="s">
+      <c r="M9" s="138" t="s">
+        <v>569</v>
+      </c>
+      <c r="N9" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="O9" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="P9" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q9" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="R9" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="S9" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="T9" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="138" t="s">
         <v>570</v>
       </c>
-      <c r="N9" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="O9" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="P9" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q9" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="R9" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="S9" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="T9" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="U9" s="139" t="s">
-        <v>571</v>
-      </c>
-      <c r="V9" s="139" t="s">
+      <c r="V9" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="W9" s="139" t="s">
+      <c r="W9" s="138" t="s">
         <v>365</v>
       </c>
       <c r="X9" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="Y9" s="139" t="s">
+      <c r="Y9" s="138" t="s">
         <v>129</v>
       </c>
       <c r="Z9" s="131" t="s">
@@ -13520,11 +13513,11 @@
       <c r="AD9" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="AE9" s="139" t="s">
+      <c r="AE9" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="AF9" s="139" t="s">
-        <v>572</v>
+      <c r="AF9" s="138" t="s">
+        <v>571</v>
       </c>
       <c r="AG9" s="134"/>
       <c r="AH9" s="134"/>
@@ -13571,97 +13564,97 @@
     </row>
     <row r="10" spans="1:74">
       <c r="A10" s="134"/>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="139" t="s">
+      <c r="F10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="138" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="138" t="s">
         <v>573</v>
       </c>
-      <c r="H10" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="139" t="s">
+      <c r="J10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="138" t="s">
         <v>574</v>
       </c>
-      <c r="J10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="139" t="s">
+      <c r="M10" s="138" t="s">
         <v>575</v>
       </c>
-      <c r="M10" s="139" t="s">
-        <v>576</v>
-      </c>
-      <c r="N10" s="139" t="s">
+      <c r="N10" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="O10" s="139" t="s">
+      <c r="O10" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="P10" s="139" t="s">
+      <c r="P10" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="Q10" s="139" t="s">
+      <c r="Q10" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="S10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="U10" s="139" t="s">
+      <c r="R10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="U10" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="V10" s="139" t="s">
+      <c r="V10" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="139" t="s">
+      <c r="W10" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="X10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y10" s="139" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z10" s="139" t="s">
+      <c r="X10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y10" s="138" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z10" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="AA10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD10" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE10" s="139" t="s">
+      <c r="AA10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="AF10" s="140" t="s">
+      <c r="AF10" s="139" t="s">
         <v>191</v>
       </c>
       <c r="AG10" s="134"/>
@@ -13707,7 +13700,7 @@
       <c r="BU10" s="134"/>
       <c r="BV10" s="134"/>
     </row>
-    <row r="11" spans="1:74" s="141" customFormat="1" ht="12"/>
+    <row r="11" spans="1:74" s="140" customFormat="1" ht="12"/>
     <row r="12" spans="1:74" s="47" customFormat="1" ht="14.25">
       <c r="A12" s="53" t="s">
         <v>86</v>
@@ -13825,168 +13818,168 @@
       </c>
     </row>
     <row r="17" spans="1:74">
-      <c r="A17" s="146"/>
-      <c r="B17" s="139" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="138" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="146"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="146"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="146"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="146"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="146"/>
-      <c r="AO17" s="146"/>
-      <c r="AP17" s="146"/>
-      <c r="AQ17" s="146"/>
-      <c r="AR17" s="146"/>
-      <c r="AS17" s="146"/>
-      <c r="AT17" s="146"/>
-      <c r="AU17" s="146"/>
-      <c r="AV17" s="146"/>
-      <c r="AW17" s="146"/>
-      <c r="AX17" s="146"/>
-      <c r="AY17" s="146"/>
-      <c r="AZ17" s="146"/>
-      <c r="BA17" s="146"/>
-      <c r="BB17" s="146"/>
-      <c r="BC17" s="146"/>
-      <c r="BD17" s="146"/>
-      <c r="BE17" s="146"/>
-      <c r="BF17" s="146"/>
-      <c r="BG17" s="146"/>
-      <c r="BH17" s="146"/>
-      <c r="BI17" s="146"/>
-      <c r="BJ17" s="146"/>
-      <c r="BK17" s="146"/>
-      <c r="BL17" s="146"/>
-      <c r="BM17" s="146"/>
-      <c r="BN17" s="146"/>
-      <c r="BO17" s="146"/>
-      <c r="BP17" s="146"/>
-      <c r="BQ17" s="146"/>
-      <c r="BR17" s="146"/>
-      <c r="BS17" s="146"/>
-      <c r="BT17" s="146"/>
-      <c r="BU17" s="146"/>
-      <c r="BV17" s="146"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="145"/>
+      <c r="AT17" s="145"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="145"/>
+      <c r="AW17" s="145"/>
+      <c r="AX17" s="145"/>
+      <c r="AY17" s="145"/>
+      <c r="AZ17" s="145"/>
+      <c r="BA17" s="145"/>
+      <c r="BB17" s="145"/>
+      <c r="BC17" s="145"/>
+      <c r="BD17" s="145"/>
+      <c r="BE17" s="145"/>
+      <c r="BF17" s="145"/>
+      <c r="BG17" s="145"/>
+      <c r="BH17" s="145"/>
+      <c r="BI17" s="145"/>
+      <c r="BJ17" s="145"/>
+      <c r="BK17" s="145"/>
+      <c r="BL17" s="145"/>
+      <c r="BM17" s="145"/>
+      <c r="BN17" s="145"/>
+      <c r="BO17" s="145"/>
+      <c r="BP17" s="145"/>
+      <c r="BQ17" s="145"/>
+      <c r="BR17" s="145"/>
+      <c r="BS17" s="145"/>
+      <c r="BT17" s="145"/>
+      <c r="BU17" s="145"/>
+      <c r="BV17" s="145"/>
     </row>
     <row r="18" spans="1:74">
-      <c r="A18" s="146"/>
-      <c r="B18" s="139" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-      <c r="AP18" s="146"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="146"/>
-      <c r="AS18" s="146"/>
-      <c r="AT18" s="146"/>
-      <c r="AU18" s="146"/>
-      <c r="AV18" s="146"/>
-      <c r="AW18" s="146"/>
-      <c r="AX18" s="146"/>
-      <c r="AY18" s="146"/>
-      <c r="AZ18" s="146"/>
-      <c r="BA18" s="146"/>
-      <c r="BB18" s="146"/>
-      <c r="BC18" s="146"/>
-      <c r="BD18" s="146"/>
-      <c r="BE18" s="146"/>
-      <c r="BF18" s="146"/>
-      <c r="BG18" s="146"/>
-      <c r="BH18" s="146"/>
-      <c r="BI18" s="146"/>
-      <c r="BJ18" s="146"/>
-      <c r="BK18" s="146"/>
-      <c r="BL18" s="146"/>
-      <c r="BM18" s="146"/>
-      <c r="BN18" s="146"/>
-      <c r="BO18" s="146"/>
-      <c r="BP18" s="146"/>
-      <c r="BQ18" s="146"/>
-      <c r="BR18" s="146"/>
-      <c r="BS18" s="146"/>
-      <c r="BT18" s="146"/>
-      <c r="BU18" s="146"/>
-      <c r="BV18" s="146"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="145"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="145"/>
+      <c r="AT18" s="145"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="145"/>
+      <c r="AW18" s="145"/>
+      <c r="AX18" s="145"/>
+      <c r="AY18" s="145"/>
+      <c r="AZ18" s="145"/>
+      <c r="BA18" s="145"/>
+      <c r="BB18" s="145"/>
+      <c r="BC18" s="145"/>
+      <c r="BD18" s="145"/>
+      <c r="BE18" s="145"/>
+      <c r="BF18" s="145"/>
+      <c r="BG18" s="145"/>
+      <c r="BH18" s="145"/>
+      <c r="BI18" s="145"/>
+      <c r="BJ18" s="145"/>
+      <c r="BK18" s="145"/>
+      <c r="BL18" s="145"/>
+      <c r="BM18" s="145"/>
+      <c r="BN18" s="145"/>
+      <c r="BO18" s="145"/>
+      <c r="BP18" s="145"/>
+      <c r="BQ18" s="145"/>
+      <c r="BR18" s="145"/>
+      <c r="BS18" s="145"/>
+      <c r="BT18" s="145"/>
+      <c r="BU18" s="145"/>
+      <c r="BV18" s="145"/>
     </row>
     <row r="19" spans="1:74" s="47" customFormat="1" ht="12"/>
     <row r="20" spans="1:74" s="47" customFormat="1" ht="12"/>
@@ -14043,11 +14036,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="135" customFormat="1" ht="14.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="147" t="s">
-        <v>597</v>
+      <c r="B6" s="146" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -14083,7 +14076,7 @@
         <v>312</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>292</v>
@@ -14113,7 +14106,7 @@
         <v>315</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>290</v>
@@ -14143,7 +14136,7 @@
         <v>317</v>
       </c>
       <c r="C13" s="129" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>347</v>
@@ -14157,7 +14150,7 @@
         <v>318</v>
       </c>
       <c r="C14" s="129" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>296</v>
@@ -14306,8 +14299,8 @@
       <c r="A27" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="147" t="s">
-        <v>598</v>
+      <c r="B27" s="146" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="43" customFormat="1"/>
@@ -14446,1113 +14439,1113 @@
       </c>
     </row>
     <row r="5" spans="1:74" s="135" customFormat="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="139" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="139" t="s">
+      <c r="P5" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="Q5" s="139" t="s">
+      <c r="Q5" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="R5" s="139" t="s">
+      <c r="R5" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="S5" s="139" t="s">
+      <c r="S5" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="139" t="s">
+      <c r="T5" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="139" t="s">
+      <c r="U5" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="V5" s="139" t="s">
+      <c r="V5" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="W5" s="139" t="s">
+      <c r="W5" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="X5" s="140" t="s">
+      <c r="X5" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="Y5" s="139" t="s">
+      <c r="Y5" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="139" t="s">
+      <c r="Z5" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="AA5" s="139" t="s">
+      <c r="AA5" s="138" t="s">
         <v>404</v>
       </c>
-      <c r="AB5" s="139" t="s">
+      <c r="AB5" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="AC5" s="139" t="s">
+      <c r="AC5" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="AD5" s="140" t="s">
+      <c r="AD5" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="139" t="s">
+      <c r="AE5" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="AF5" s="139" t="s">
+      <c r="AF5" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="146"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="146"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="145"/>
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="145"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="145"/>
+      <c r="BE5" s="145"/>
+      <c r="BF5" s="145"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="145"/>
+      <c r="BI5" s="145"/>
+      <c r="BJ5" s="145"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="145"/>
+      <c r="BM5" s="145"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="145"/>
+      <c r="BQ5" s="145"/>
+      <c r="BR5" s="145"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="145"/>
+      <c r="BU5" s="145"/>
+      <c r="BV5" s="145"/>
     </row>
     <row r="6" spans="1:74" s="135" customFormat="1">
-      <c r="A6" s="143"/>
-      <c r="B6" s="139" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="139" t="s">
+      <c r="F6" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="138" t="s">
         <v>382</v>
       </c>
-      <c r="J6" s="139" t="s">
+      <c r="J6" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="138" t="s">
         <v>385</v>
       </c>
-      <c r="N6" s="139" t="s">
+      <c r="N6" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="139" t="s">
+      <c r="O6" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="P6" s="139" t="s">
+      <c r="P6" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="Q6" s="139" t="s">
+      <c r="Q6" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="R6" s="139" t="s">
+      <c r="R6" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="S6" s="139" t="s">
+      <c r="S6" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="T6" s="139" t="s">
+      <c r="T6" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="U6" s="139" t="s">
+      <c r="U6" s="138" t="s">
+        <v>560</v>
+      </c>
+      <c r="V6" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="X6" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y6" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA6" s="138" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB6" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC6" s="138" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD6" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE6" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6" s="138" t="s">
         <v>561</v>
       </c>
-      <c r="V6" s="139" t="s">
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="145"/>
+      <c r="AP6" s="145"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="145"/>
+      <c r="AZ6" s="145"/>
+      <c r="BA6" s="145"/>
+      <c r="BB6" s="145"/>
+      <c r="BC6" s="145"/>
+      <c r="BD6" s="145"/>
+      <c r="BE6" s="145"/>
+      <c r="BF6" s="145"/>
+      <c r="BG6" s="145"/>
+      <c r="BH6" s="145"/>
+      <c r="BI6" s="145"/>
+      <c r="BJ6" s="145"/>
+      <c r="BK6" s="145"/>
+      <c r="BL6" s="145"/>
+      <c r="BM6" s="145"/>
+      <c r="BN6" s="145"/>
+      <c r="BO6" s="145"/>
+      <c r="BP6" s="145"/>
+      <c r="BQ6" s="145"/>
+      <c r="BR6" s="145"/>
+      <c r="BS6" s="145"/>
+      <c r="BT6" s="145"/>
+      <c r="BU6" s="145"/>
+      <c r="BV6" s="145"/>
+    </row>
+    <row r="7" spans="1:74" s="135" customFormat="1">
+      <c r="A7" s="142"/>
+      <c r="B7" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="F7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="138" t="s">
+        <v>562</v>
+      </c>
+      <c r="J7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q7" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="138" t="s">
+        <v>563</v>
+      </c>
+      <c r="V7" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="X6" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y6" s="139" t="s">
+      <c r="X7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="Z6" s="139" t="s">
+      <c r="Z7" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="AA6" s="139" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB6" s="139" t="s">
+      <c r="AA7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE7" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7" s="138" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="145"/>
+      <c r="AM7" s="145"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="145"/>
+      <c r="AP7" s="145"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="145"/>
+      <c r="AT7" s="145"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="145"/>
+      <c r="AW7" s="145"/>
+      <c r="AX7" s="145"/>
+      <c r="AY7" s="145"/>
+      <c r="AZ7" s="145"/>
+      <c r="BA7" s="145"/>
+      <c r="BB7" s="145"/>
+      <c r="BC7" s="145"/>
+      <c r="BD7" s="145"/>
+      <c r="BE7" s="145"/>
+      <c r="BF7" s="145"/>
+      <c r="BG7" s="145"/>
+      <c r="BH7" s="145"/>
+      <c r="BI7" s="145"/>
+      <c r="BJ7" s="145"/>
+      <c r="BK7" s="145"/>
+      <c r="BL7" s="145"/>
+      <c r="BM7" s="145"/>
+      <c r="BN7" s="145"/>
+      <c r="BO7" s="145"/>
+      <c r="BP7" s="145"/>
+      <c r="BQ7" s="145"/>
+      <c r="BR7" s="145"/>
+      <c r="BS7" s="145"/>
+      <c r="BT7" s="145"/>
+      <c r="BU7" s="145"/>
+      <c r="BV7" s="145"/>
+    </row>
+    <row r="8" spans="1:74" s="135" customFormat="1">
+      <c r="A8" s="142"/>
+      <c r="B8" s="138" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="138" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="J8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="N8" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="AC6" s="139" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD6" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE6" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="139" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="146"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="146"/>
-      <c r="BP6" s="146"/>
-      <c r="BQ6" s="146"/>
-      <c r="BR6" s="146"/>
-      <c r="BS6" s="146"/>
-      <c r="BT6" s="146"/>
-      <c r="BU6" s="146"/>
-      <c r="BV6" s="146"/>
-    </row>
-    <row r="7" spans="1:74" s="135" customFormat="1">
-      <c r="A7" s="143"/>
-      <c r="B7" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="139" t="s">
+      <c r="O8" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="R8" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="S8" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="T8" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="138" t="s">
+        <v>566</v>
+      </c>
+      <c r="V8" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="X8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z8" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD8" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE8" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF8" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
+      <c r="AK8" s="145"/>
+      <c r="AL8" s="145"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="145"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="145"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="145"/>
+      <c r="BA8" s="145"/>
+      <c r="BB8" s="145"/>
+      <c r="BC8" s="145"/>
+      <c r="BD8" s="145"/>
+      <c r="BE8" s="145"/>
+      <c r="BF8" s="145"/>
+      <c r="BG8" s="145"/>
+      <c r="BH8" s="145"/>
+      <c r="BI8" s="145"/>
+      <c r="BJ8" s="145"/>
+      <c r="BK8" s="145"/>
+      <c r="BL8" s="145"/>
+      <c r="BM8" s="145"/>
+      <c r="BN8" s="145"/>
+      <c r="BO8" s="145"/>
+      <c r="BP8" s="145"/>
+      <c r="BQ8" s="145"/>
+      <c r="BR8" s="145"/>
+      <c r="BS8" s="145"/>
+      <c r="BT8" s="145"/>
+      <c r="BU8" s="145"/>
+      <c r="BV8" s="145"/>
+    </row>
+    <row r="9" spans="1:74" s="135" customFormat="1">
+      <c r="A9" s="142"/>
+      <c r="B9" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D9" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E9" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="139" t="s">
+      <c r="F9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="H9" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="139" t="s">
-        <v>563</v>
-      </c>
-      <c r="J7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="139" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="139" t="s">
+      <c r="I9" s="138" t="s">
+        <v>568</v>
+      </c>
+      <c r="J9" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="O7" s="139" t="s">
+      <c r="K9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" s="138" t="s">
+        <v>569</v>
+      </c>
+      <c r="N9" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="O9" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="P7" s="139" t="s">
+      <c r="P9" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="Q7" s="139" t="s">
+      <c r="Q9" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="R7" s="139" t="s">
+      <c r="R9" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="S7" s="139" t="s">
+      <c r="S9" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="T7" s="139" t="s">
+      <c r="T9" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="U7" s="139" t="s">
-        <v>564</v>
-      </c>
-      <c r="V7" s="139" t="s">
+      <c r="U9" s="138" t="s">
+        <v>570</v>
+      </c>
+      <c r="V9" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="W9" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="X9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC9" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE9" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" s="138" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="145"/>
+      <c r="BA9" s="145"/>
+      <c r="BB9" s="145"/>
+      <c r="BC9" s="145"/>
+      <c r="BD9" s="145"/>
+      <c r="BE9" s="145"/>
+      <c r="BF9" s="145"/>
+      <c r="BG9" s="145"/>
+      <c r="BH9" s="145"/>
+      <c r="BI9" s="145"/>
+      <c r="BJ9" s="145"/>
+      <c r="BK9" s="145"/>
+      <c r="BL9" s="145"/>
+      <c r="BM9" s="145"/>
+      <c r="BN9" s="145"/>
+      <c r="BO9" s="145"/>
+      <c r="BP9" s="145"/>
+      <c r="BQ9" s="145"/>
+      <c r="BR9" s="145"/>
+      <c r="BS9" s="145"/>
+      <c r="BT9" s="145"/>
+      <c r="BU9" s="145"/>
+      <c r="BV9" s="145"/>
+    </row>
+    <row r="10" spans="1:74" s="135" customFormat="1">
+      <c r="A10" s="146"/>
+      <c r="B10" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="W7" s="139" t="s">
+      <c r="F10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>577</v>
+      </c>
+      <c r="J10" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="150" t="s">
+        <v>574</v>
+      </c>
+      <c r="M10" s="150" t="s">
+        <v>575</v>
+      </c>
+      <c r="N10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="R10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="S10" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="T10" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="U10" s="150" t="s">
+        <v>364</v>
+      </c>
+      <c r="V10" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="W10" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="X7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z7" s="139" t="s">
+      <c r="X10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y10" s="150" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z10" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="AA7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD7" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE7" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7" s="139" t="s">
-        <v>565</v>
-      </c>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="146"/>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="146"/>
-      <c r="AR7" s="146"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="146"/>
-      <c r="AW7" s="146"/>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="146"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="146"/>
-      <c r="BB7" s="146"/>
-      <c r="BC7" s="146"/>
-      <c r="BD7" s="146"/>
-      <c r="BE7" s="146"/>
-      <c r="BF7" s="146"/>
-      <c r="BG7" s="146"/>
-      <c r="BH7" s="146"/>
-      <c r="BI7" s="146"/>
-      <c r="BJ7" s="146"/>
-      <c r="BK7" s="146"/>
-      <c r="BL7" s="146"/>
-      <c r="BM7" s="146"/>
-      <c r="BN7" s="146"/>
-      <c r="BO7" s="146"/>
-      <c r="BP7" s="146"/>
-      <c r="BQ7" s="146"/>
-      <c r="BR7" s="146"/>
-      <c r="BS7" s="146"/>
-      <c r="BT7" s="146"/>
-      <c r="BU7" s="146"/>
-      <c r="BV7" s="146"/>
-    </row>
-    <row r="8" spans="1:74" s="135" customFormat="1">
-      <c r="A8" s="143"/>
-      <c r="B8" s="139" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="139" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>566</v>
-      </c>
-      <c r="J8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="139" t="s">
-        <v>385</v>
-      </c>
-      <c r="N8" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="R8" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="S8" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="T8" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="U8" s="139" t="s">
-        <v>567</v>
-      </c>
-      <c r="V8" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="X8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z8" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE8" s="139" t="s">
+      <c r="AA10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" s="150" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD10" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="AF8" s="139" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="146"/>
-      <c r="AN8" s="146"/>
-      <c r="AO8" s="146"/>
-      <c r="AP8" s="146"/>
-      <c r="AQ8" s="146"/>
-      <c r="AR8" s="146"/>
-      <c r="AS8" s="146"/>
-      <c r="AT8" s="146"/>
-      <c r="AU8" s="146"/>
-      <c r="AV8" s="146"/>
-      <c r="AW8" s="146"/>
-      <c r="AX8" s="146"/>
-      <c r="AY8" s="146"/>
-      <c r="AZ8" s="146"/>
-      <c r="BA8" s="146"/>
-      <c r="BB8" s="146"/>
-      <c r="BC8" s="146"/>
-      <c r="BD8" s="146"/>
-      <c r="BE8" s="146"/>
-      <c r="BF8" s="146"/>
-      <c r="BG8" s="146"/>
-      <c r="BH8" s="146"/>
-      <c r="BI8" s="146"/>
-      <c r="BJ8" s="146"/>
-      <c r="BK8" s="146"/>
-      <c r="BL8" s="146"/>
-      <c r="BM8" s="146"/>
-      <c r="BN8" s="146"/>
-      <c r="BO8" s="146"/>
-      <c r="BP8" s="146"/>
-      <c r="BQ8" s="146"/>
-      <c r="BR8" s="146"/>
-      <c r="BS8" s="146"/>
-      <c r="BT8" s="146"/>
-      <c r="BU8" s="146"/>
-      <c r="BV8" s="146"/>
-    </row>
-    <row r="9" spans="1:74" s="135" customFormat="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="139" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="139" t="s">
-        <v>569</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="139" t="s">
-        <v>570</v>
-      </c>
-      <c r="N9" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="O9" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="P9" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q9" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="R9" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="S9" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="T9" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="U9" s="139" t="s">
-        <v>571</v>
-      </c>
-      <c r="V9" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="W9" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="X9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y9" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z9" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC9" s="139" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD9" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE9" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF9" s="139" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="146"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="146"/>
-      <c r="AO9" s="146"/>
-      <c r="AP9" s="146"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="146"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
-      <c r="AX9" s="146"/>
-      <c r="AY9" s="146"/>
-      <c r="AZ9" s="146"/>
-      <c r="BA9" s="146"/>
-      <c r="BB9" s="146"/>
-      <c r="BC9" s="146"/>
-      <c r="BD9" s="146"/>
-      <c r="BE9" s="146"/>
-      <c r="BF9" s="146"/>
-      <c r="BG9" s="146"/>
-      <c r="BH9" s="146"/>
-      <c r="BI9" s="146"/>
-      <c r="BJ9" s="146"/>
-      <c r="BK9" s="146"/>
-      <c r="BL9" s="146"/>
-      <c r="BM9" s="146"/>
-      <c r="BN9" s="146"/>
-      <c r="BO9" s="146"/>
-      <c r="BP9" s="146"/>
-      <c r="BQ9" s="146"/>
-      <c r="BR9" s="146"/>
-      <c r="BS9" s="146"/>
-      <c r="BT9" s="146"/>
-      <c r="BU9" s="146"/>
-      <c r="BV9" s="146"/>
-    </row>
-    <row r="10" spans="1:74" s="135" customFormat="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>577</v>
-      </c>
-      <c r="H10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="151" t="s">
-        <v>578</v>
-      </c>
-      <c r="J10" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="K10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="151" t="s">
-        <v>575</v>
-      </c>
-      <c r="M10" s="151" t="s">
-        <v>576</v>
-      </c>
-      <c r="N10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="O10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="R10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="S10" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="T10" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="U10" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="V10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="W10" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y10" s="151" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z10" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC10" s="151" t="s">
+      <c r="AF10" s="150" t="s">
         <v>579</v>
       </c>
-      <c r="AD10" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE10" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF10" s="151" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG10" s="155"/>
-      <c r="AH10" s="155"/>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="155"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="155"/>
-      <c r="AO10" s="155"/>
-      <c r="AP10" s="155"/>
-      <c r="AQ10" s="155"/>
-      <c r="AR10" s="155"/>
-      <c r="AS10" s="155"/>
-      <c r="AT10" s="155"/>
-      <c r="AU10" s="155"/>
-      <c r="AV10" s="155"/>
-      <c r="AW10" s="155"/>
-      <c r="AX10" s="155"/>
-      <c r="AY10" s="155"/>
-      <c r="AZ10" s="155"/>
-      <c r="BA10" s="155"/>
-      <c r="BB10" s="155"/>
-      <c r="BC10" s="155"/>
-      <c r="BD10" s="155"/>
-      <c r="BE10" s="155"/>
-      <c r="BF10" s="155"/>
-      <c r="BG10" s="155"/>
-      <c r="BH10" s="155"/>
-      <c r="BI10" s="155"/>
-      <c r="BJ10" s="155"/>
-      <c r="BK10" s="155"/>
-      <c r="BL10" s="155"/>
-      <c r="BM10" s="155"/>
-      <c r="BN10" s="155"/>
-      <c r="BO10" s="155"/>
-      <c r="BP10" s="155"/>
-      <c r="BQ10" s="155"/>
-      <c r="BR10" s="155"/>
-      <c r="BS10" s="155"/>
-      <c r="BT10" s="155"/>
-      <c r="BU10" s="155"/>
-      <c r="BV10" s="155"/>
-    </row>
-    <row r="11" spans="1:74" s="141" customFormat="1" ht="12"/>
-    <row r="12" spans="1:74" s="141" customFormat="1" ht="14.25">
-      <c r="A12" s="142" t="s">
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="154"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="154"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
+      <c r="AQ10" s="154"/>
+      <c r="AR10" s="154"/>
+      <c r="AS10" s="154"/>
+      <c r="AT10" s="154"/>
+      <c r="AU10" s="154"/>
+      <c r="AV10" s="154"/>
+      <c r="AW10" s="154"/>
+      <c r="AX10" s="154"/>
+      <c r="AY10" s="154"/>
+      <c r="AZ10" s="154"/>
+      <c r="BA10" s="154"/>
+      <c r="BB10" s="154"/>
+      <c r="BC10" s="154"/>
+      <c r="BD10" s="154"/>
+      <c r="BE10" s="154"/>
+      <c r="BF10" s="154"/>
+      <c r="BG10" s="154"/>
+      <c r="BH10" s="154"/>
+      <c r="BI10" s="154"/>
+      <c r="BJ10" s="154"/>
+      <c r="BK10" s="154"/>
+      <c r="BL10" s="154"/>
+      <c r="BM10" s="154"/>
+      <c r="BN10" s="154"/>
+      <c r="BO10" s="154"/>
+      <c r="BP10" s="154"/>
+      <c r="BQ10" s="154"/>
+      <c r="BR10" s="154"/>
+      <c r="BS10" s="154"/>
+      <c r="BT10" s="154"/>
+      <c r="BU10" s="154"/>
+      <c r="BV10" s="154"/>
+    </row>
+    <row r="11" spans="1:74" s="140" customFormat="1" ht="12"/>
+    <row r="12" spans="1:74" s="140" customFormat="1" ht="14.25">
+      <c r="A12" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="143"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="143"/>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="143"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="143"/>
-      <c r="AH12" s="143"/>
-      <c r="AI12" s="143"/>
-      <c r="AJ12" s="143"/>
-      <c r="AK12" s="143"/>
-      <c r="AL12" s="143"/>
-      <c r="AM12" s="143"/>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="143"/>
-      <c r="AP12" s="143"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="143"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="143"/>
-      <c r="AU12" s="143"/>
-      <c r="AV12" s="143"/>
-      <c r="AW12" s="143"/>
-      <c r="AX12" s="143"/>
-      <c r="AY12" s="143"/>
-      <c r="AZ12" s="143"/>
-      <c r="BA12" s="143"/>
-      <c r="BB12" s="143"/>
-      <c r="BC12" s="143"/>
-      <c r="BD12" s="143"/>
-      <c r="BE12" s="143"/>
-      <c r="BF12" s="143"/>
-      <c r="BG12" s="143"/>
-      <c r="BH12" s="143"/>
-      <c r="BI12" s="143"/>
-      <c r="BJ12" s="143"/>
-      <c r="BK12" s="143"/>
-      <c r="BL12" s="143"/>
-      <c r="BM12" s="143"/>
-      <c r="BN12" s="143"/>
-      <c r="BO12" s="143"/>
-      <c r="BP12" s="143"/>
-      <c r="BQ12" s="143"/>
-      <c r="BR12" s="143"/>
-      <c r="BS12" s="143"/>
-      <c r="BT12" s="143"/>
-      <c r="BU12" s="143"/>
-      <c r="BV12" s="143"/>
-    </row>
-    <row r="13" spans="1:74" s="141" customFormat="1" ht="12">
-      <c r="B13" s="144" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="142"/>
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="142"/>
+      <c r="AL12" s="142"/>
+      <c r="AM12" s="142"/>
+      <c r="AN12" s="142"/>
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="142"/>
+      <c r="AQ12" s="142"/>
+      <c r="AR12" s="142"/>
+      <c r="AS12" s="142"/>
+      <c r="AT12" s="142"/>
+      <c r="AU12" s="142"/>
+      <c r="AV12" s="142"/>
+      <c r="AW12" s="142"/>
+      <c r="AX12" s="142"/>
+      <c r="AY12" s="142"/>
+      <c r="AZ12" s="142"/>
+      <c r="BA12" s="142"/>
+      <c r="BB12" s="142"/>
+      <c r="BC12" s="142"/>
+      <c r="BD12" s="142"/>
+      <c r="BE12" s="142"/>
+      <c r="BF12" s="142"/>
+      <c r="BG12" s="142"/>
+      <c r="BH12" s="142"/>
+      <c r="BI12" s="142"/>
+      <c r="BJ12" s="142"/>
+      <c r="BK12" s="142"/>
+      <c r="BL12" s="142"/>
+      <c r="BM12" s="142"/>
+      <c r="BN12" s="142"/>
+      <c r="BO12" s="142"/>
+      <c r="BP12" s="142"/>
+      <c r="BQ12" s="142"/>
+      <c r="BR12" s="142"/>
+      <c r="BS12" s="142"/>
+      <c r="BT12" s="142"/>
+      <c r="BU12" s="142"/>
+      <c r="BV12" s="142"/>
+    </row>
+    <row r="13" spans="1:74" s="140" customFormat="1" ht="12">
+      <c r="B13" s="143" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="141" customFormat="1" ht="12">
-      <c r="B14" s="138" t="s">
+    <row r="14" spans="1:74" s="140" customFormat="1" ht="12">
+      <c r="B14" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="136" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="136" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="141" customFormat="1" ht="12">
-      <c r="B15" s="139" t="s">
+    <row r="15" spans="1:74" s="140" customFormat="1" ht="12">
+      <c r="B15" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="138" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="141" customFormat="1" ht="12">
-      <c r="B16" s="139" t="s">
+    <row r="16" spans="1:74" s="140" customFormat="1" ht="12">
+      <c r="B16" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="138" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:74" s="135" customFormat="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="139" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="138" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="146"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="146"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="146"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="146"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="146"/>
-      <c r="AO17" s="146"/>
-      <c r="AP17" s="146"/>
-      <c r="AQ17" s="146"/>
-      <c r="AR17" s="146"/>
-      <c r="AS17" s="146"/>
-      <c r="AT17" s="146"/>
-      <c r="AU17" s="146"/>
-      <c r="AV17" s="146"/>
-      <c r="AW17" s="146"/>
-      <c r="AX17" s="146"/>
-      <c r="AY17" s="146"/>
-      <c r="AZ17" s="146"/>
-      <c r="BA17" s="146"/>
-      <c r="BB17" s="146"/>
-      <c r="BC17" s="146"/>
-      <c r="BD17" s="146"/>
-      <c r="BE17" s="146"/>
-      <c r="BF17" s="146"/>
-      <c r="BG17" s="146"/>
-      <c r="BH17" s="146"/>
-      <c r="BI17" s="146"/>
-      <c r="BJ17" s="146"/>
-      <c r="BK17" s="146"/>
-      <c r="BL17" s="146"/>
-      <c r="BM17" s="146"/>
-      <c r="BN17" s="146"/>
-      <c r="BO17" s="146"/>
-      <c r="BP17" s="146"/>
-      <c r="BQ17" s="146"/>
-      <c r="BR17" s="146"/>
-      <c r="BS17" s="146"/>
-      <c r="BT17" s="146"/>
-      <c r="BU17" s="146"/>
-      <c r="BV17" s="146"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="145"/>
+      <c r="AT17" s="145"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="145"/>
+      <c r="AW17" s="145"/>
+      <c r="AX17" s="145"/>
+      <c r="AY17" s="145"/>
+      <c r="AZ17" s="145"/>
+      <c r="BA17" s="145"/>
+      <c r="BB17" s="145"/>
+      <c r="BC17" s="145"/>
+      <c r="BD17" s="145"/>
+      <c r="BE17" s="145"/>
+      <c r="BF17" s="145"/>
+      <c r="BG17" s="145"/>
+      <c r="BH17" s="145"/>
+      <c r="BI17" s="145"/>
+      <c r="BJ17" s="145"/>
+      <c r="BK17" s="145"/>
+      <c r="BL17" s="145"/>
+      <c r="BM17" s="145"/>
+      <c r="BN17" s="145"/>
+      <c r="BO17" s="145"/>
+      <c r="BP17" s="145"/>
+      <c r="BQ17" s="145"/>
+      <c r="BR17" s="145"/>
+      <c r="BS17" s="145"/>
+      <c r="BT17" s="145"/>
+      <c r="BU17" s="145"/>
+      <c r="BV17" s="145"/>
     </row>
     <row r="18" spans="1:74" s="135" customFormat="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="139" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-      <c r="AP18" s="146"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="146"/>
-      <c r="AS18" s="146"/>
-      <c r="AT18" s="146"/>
-      <c r="AU18" s="146"/>
-      <c r="AV18" s="146"/>
-      <c r="AW18" s="146"/>
-      <c r="AX18" s="146"/>
-      <c r="AY18" s="146"/>
-      <c r="AZ18" s="146"/>
-      <c r="BA18" s="146"/>
-      <c r="BB18" s="146"/>
-      <c r="BC18" s="146"/>
-      <c r="BD18" s="146"/>
-      <c r="BE18" s="146"/>
-      <c r="BF18" s="146"/>
-      <c r="BG18" s="146"/>
-      <c r="BH18" s="146"/>
-      <c r="BI18" s="146"/>
-      <c r="BJ18" s="146"/>
-      <c r="BK18" s="146"/>
-      <c r="BL18" s="146"/>
-      <c r="BM18" s="146"/>
-      <c r="BN18" s="146"/>
-      <c r="BO18" s="146"/>
-      <c r="BP18" s="146"/>
-      <c r="BQ18" s="146"/>
-      <c r="BR18" s="146"/>
-      <c r="BS18" s="146"/>
-      <c r="BT18" s="146"/>
-      <c r="BU18" s="146"/>
-      <c r="BV18" s="146"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="145"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="145"/>
+      <c r="AT18" s="145"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="145"/>
+      <c r="AW18" s="145"/>
+      <c r="AX18" s="145"/>
+      <c r="AY18" s="145"/>
+      <c r="AZ18" s="145"/>
+      <c r="BA18" s="145"/>
+      <c r="BB18" s="145"/>
+      <c r="BC18" s="145"/>
+      <c r="BD18" s="145"/>
+      <c r="BE18" s="145"/>
+      <c r="BF18" s="145"/>
+      <c r="BG18" s="145"/>
+      <c r="BH18" s="145"/>
+      <c r="BI18" s="145"/>
+      <c r="BJ18" s="145"/>
+      <c r="BK18" s="145"/>
+      <c r="BL18" s="145"/>
+      <c r="BM18" s="145"/>
+      <c r="BN18" s="145"/>
+      <c r="BO18" s="145"/>
+      <c r="BP18" s="145"/>
+      <c r="BQ18" s="145"/>
+      <c r="BR18" s="145"/>
+      <c r="BS18" s="145"/>
+      <c r="BT18" s="145"/>
+      <c r="BU18" s="145"/>
+      <c r="BV18" s="145"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -15599,8 +15592,8 @@
       <c r="A5" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="147" t="s">
-        <v>599</v>
+      <c r="B5" s="146" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -15640,1062 +15633,1062 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="147" customFormat="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="150" t="s">
+    <row r="4" spans="1:74" s="146" customFormat="1">
+      <c r="A4" s="147"/>
+      <c r="B4" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="148" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="148" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="149" t="s">
+      <c r="L4" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="149" t="s">
+      <c r="M4" s="148" t="s">
         <v>271</v>
       </c>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="149" t="s">
+      <c r="O4" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="P4" s="149" t="s">
+      <c r="P4" s="148" t="s">
         <v>274</v>
       </c>
-      <c r="Q4" s="149" t="s">
+      <c r="Q4" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="149" t="s">
+      <c r="R4" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="U4" s="149" t="s">
+      <c r="U4" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="149" t="s">
+      <c r="V4" s="148" t="s">
         <v>279</v>
       </c>
-      <c r="W4" s="149" t="s">
+      <c r="W4" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="X4" s="149" t="s">
+      <c r="X4" s="148" t="s">
         <v>281</v>
       </c>
-      <c r="Y4" s="149" t="s">
+      <c r="Y4" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="Z4" s="149" t="s">
+      <c r="Z4" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="AA4" s="149" t="s">
+      <c r="AA4" s="148" t="s">
         <v>284</v>
       </c>
-      <c r="AB4" s="149" t="s">
+      <c r="AB4" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="148" t="s">
         <v>286</v>
       </c>
-      <c r="AD4" s="149" t="s">
+      <c r="AD4" s="148" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="149" t="s">
+      <c r="AE4" s="148" t="s">
         <v>288</v>
       </c>
-      <c r="AF4" s="149" t="s">
+      <c r="AF4" s="148" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="147" customFormat="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="151" t="s">
+    <row r="5" spans="1:74" s="146" customFormat="1">
+      <c r="A5" s="154"/>
+      <c r="B5" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="151" t="s">
+      <c r="F5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="150" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="151" t="s">
+      <c r="H5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="K5" s="151" t="s">
+      <c r="K5" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="M5" s="151" t="s">
+      <c r="M5" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="N5" s="151" t="s">
+      <c r="N5" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="151" t="s">
+      <c r="O5" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="Q5" s="151" t="s">
+      <c r="Q5" s="150" t="s">
         <v>362</v>
       </c>
-      <c r="R5" s="151" t="s">
+      <c r="R5" s="150" t="s">
         <v>363</v>
       </c>
-      <c r="S5" s="151" t="s">
+      <c r="S5" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="151" t="s">
+      <c r="T5" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="151" t="s">
+      <c r="U5" s="150" t="s">
+        <v>560</v>
+      </c>
+      <c r="V5" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA5" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB5" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC5" s="150" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD5" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE5" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="150" t="s">
         <v>561</v>
       </c>
-      <c r="V5" s="151" t="s">
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
+      <c r="AX5" s="156"/>
+      <c r="AY5" s="156"/>
+      <c r="AZ5" s="156"/>
+      <c r="BA5" s="156"/>
+      <c r="BB5" s="156"/>
+      <c r="BC5" s="156"/>
+      <c r="BD5" s="156"/>
+      <c r="BE5" s="156"/>
+      <c r="BF5" s="156"/>
+      <c r="BG5" s="156"/>
+      <c r="BH5" s="156"/>
+      <c r="BI5" s="156"/>
+      <c r="BJ5" s="156"/>
+      <c r="BK5" s="156"/>
+      <c r="BL5" s="156"/>
+      <c r="BM5" s="156"/>
+      <c r="BN5" s="156"/>
+      <c r="BO5" s="156"/>
+      <c r="BP5" s="156"/>
+      <c r="BQ5" s="156"/>
+      <c r="BR5" s="156"/>
+      <c r="BS5" s="156"/>
+      <c r="BT5" s="156"/>
+      <c r="BU5" s="156"/>
+      <c r="BV5" s="156"/>
+    </row>
+    <row r="6" spans="1:74" s="146" customFormat="1">
+      <c r="A6" s="154"/>
+      <c r="B6" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="151" t="s">
+      <c r="F6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>562</v>
+      </c>
+      <c r="J6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="150" t="s">
+        <v>385</v>
+      </c>
+      <c r="N6" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="R6" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="S6" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="150" t="s">
+        <v>563</v>
+      </c>
+      <c r="V6" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="X5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y5" s="151" t="s">
+      <c r="X6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y6" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" s="151" t="s">
+      <c r="Z6" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="AA5" s="151" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB5" s="151" t="s">
+      <c r="AA6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE6" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6" s="150" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
+      <c r="AX6" s="156"/>
+      <c r="AY6" s="156"/>
+      <c r="AZ6" s="156"/>
+      <c r="BA6" s="156"/>
+      <c r="BB6" s="156"/>
+      <c r="BC6" s="156"/>
+      <c r="BD6" s="156"/>
+      <c r="BE6" s="156"/>
+      <c r="BF6" s="156"/>
+      <c r="BG6" s="156"/>
+      <c r="BH6" s="156"/>
+      <c r="BI6" s="156"/>
+      <c r="BJ6" s="156"/>
+      <c r="BK6" s="156"/>
+      <c r="BL6" s="156"/>
+      <c r="BM6" s="156"/>
+      <c r="BN6" s="156"/>
+      <c r="BO6" s="156"/>
+      <c r="BP6" s="156"/>
+      <c r="BQ6" s="156"/>
+      <c r="BR6" s="156"/>
+      <c r="BS6" s="156"/>
+      <c r="BT6" s="156"/>
+      <c r="BU6" s="156"/>
+      <c r="BV6" s="156"/>
+    </row>
+    <row r="7" spans="1:74" s="146" customFormat="1">
+      <c r="A7" s="154"/>
+      <c r="B7" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>565</v>
+      </c>
+      <c r="J7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="150" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="AC5" s="151" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD5" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE5" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF5" s="151" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="157"/>
-      <c r="AT5" s="157"/>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="157"/>
-      <c r="BA5" s="157"/>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="157"/>
-      <c r="BH5" s="157"/>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="157"/>
-      <c r="BO5" s="157"/>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="157"/>
-      <c r="BV5" s="157"/>
-    </row>
-    <row r="6" spans="1:74" s="147" customFormat="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="151" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="151" t="s">
+      <c r="O7" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q7" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="V7" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE7" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF7" s="150" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
+      <c r="AX7" s="156"/>
+      <c r="AY7" s="156"/>
+      <c r="AZ7" s="156"/>
+      <c r="BA7" s="156"/>
+      <c r="BB7" s="156"/>
+      <c r="BC7" s="156"/>
+      <c r="BD7" s="156"/>
+      <c r="BE7" s="156"/>
+      <c r="BF7" s="156"/>
+      <c r="BG7" s="156"/>
+      <c r="BH7" s="156"/>
+      <c r="BI7" s="156"/>
+      <c r="BJ7" s="156"/>
+      <c r="BK7" s="156"/>
+      <c r="BL7" s="156"/>
+      <c r="BM7" s="156"/>
+      <c r="BN7" s="156"/>
+      <c r="BO7" s="156"/>
+      <c r="BP7" s="156"/>
+      <c r="BQ7" s="156"/>
+      <c r="BR7" s="156"/>
+      <c r="BS7" s="156"/>
+      <c r="BT7" s="156"/>
+      <c r="BU7" s="156"/>
+      <c r="BV7" s="156"/>
+    </row>
+    <row r="8" spans="1:74" s="146" customFormat="1">
+      <c r="A8" s="154"/>
+      <c r="B8" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D8" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E8" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="H6" s="151" t="s">
+      <c r="F8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="J6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="N6" s="151" t="s">
+      <c r="I8" s="150" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="151" t="s">
+      <c r="K8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="150" t="s">
+        <v>569</v>
+      </c>
+      <c r="N8" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="P6" s="151" t="s">
+      <c r="P8" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="Q6" s="151" t="s">
+      <c r="Q8" s="150" t="s">
         <v>362</v>
       </c>
-      <c r="R6" s="151" t="s">
+      <c r="R8" s="150" t="s">
         <v>363</v>
       </c>
-      <c r="S6" s="151" t="s">
+      <c r="S8" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="T6" s="151" t="s">
+      <c r="T8" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="U6" s="151" t="s">
-        <v>564</v>
-      </c>
-      <c r="V6" s="151" t="s">
+      <c r="U8" s="150" t="s">
+        <v>570</v>
+      </c>
+      <c r="V8" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="W8" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="X8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z8" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD8" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE8" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF8" s="150" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
+      <c r="AX8" s="156"/>
+      <c r="AY8" s="156"/>
+      <c r="AZ8" s="156"/>
+      <c r="BA8" s="156"/>
+      <c r="BB8" s="156"/>
+      <c r="BC8" s="156"/>
+      <c r="BD8" s="156"/>
+      <c r="BE8" s="156"/>
+      <c r="BF8" s="156"/>
+      <c r="BG8" s="156"/>
+      <c r="BH8" s="156"/>
+      <c r="BI8" s="156"/>
+      <c r="BJ8" s="156"/>
+      <c r="BK8" s="156"/>
+      <c r="BL8" s="156"/>
+      <c r="BM8" s="156"/>
+      <c r="BN8" s="156"/>
+      <c r="BO8" s="156"/>
+      <c r="BP8" s="156"/>
+      <c r="BQ8" s="156"/>
+      <c r="BR8" s="156"/>
+      <c r="BS8" s="156"/>
+      <c r="BT8" s="156"/>
+      <c r="BU8" s="156"/>
+      <c r="BV8" s="156"/>
+    </row>
+    <row r="9" spans="1:74" s="146" customFormat="1">
+      <c r="B9" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="151" t="s">
+      <c r="F9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="150" t="s">
+        <v>576</v>
+      </c>
+      <c r="H9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="150" t="s">
+        <v>574</v>
+      </c>
+      <c r="M9" s="150" t="s">
+        <v>575</v>
+      </c>
+      <c r="N9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="R9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="T9" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" s="150" t="s">
+        <v>364</v>
+      </c>
+      <c r="V9" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="W9" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="X6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y6" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z6" s="151" t="s">
+      <c r="X9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" s="150" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z9" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="AA6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE6" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="151" t="s">
-        <v>565</v>
-      </c>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="157"/>
-      <c r="AQ6" s="157"/>
-      <c r="AR6" s="157"/>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="157"/>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="157"/>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="157"/>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="157"/>
-      <c r="BA6" s="157"/>
-      <c r="BB6" s="157"/>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="157"/>
-      <c r="BE6" s="157"/>
-      <c r="BF6" s="157"/>
-      <c r="BG6" s="157"/>
-      <c r="BH6" s="157"/>
-      <c r="BI6" s="157"/>
-      <c r="BJ6" s="157"/>
-      <c r="BK6" s="157"/>
-      <c r="BL6" s="157"/>
-      <c r="BM6" s="157"/>
-      <c r="BN6" s="157"/>
-      <c r="BO6" s="157"/>
-      <c r="BP6" s="157"/>
-      <c r="BQ6" s="157"/>
-      <c r="BR6" s="157"/>
-      <c r="BS6" s="157"/>
-      <c r="BT6" s="157"/>
-      <c r="BU6" s="157"/>
-      <c r="BV6" s="157"/>
-    </row>
-    <row r="7" spans="1:74" s="147" customFormat="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="151" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="H7" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="I7" s="151" t="s">
-        <v>566</v>
-      </c>
-      <c r="J7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="S7" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="T7" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="U7" s="151" t="s">
-        <v>567</v>
-      </c>
-      <c r="V7" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z7" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD7" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE7" s="151" t="s">
+      <c r="AA9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC9" s="150" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD9" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE9" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="AF7" s="151" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="157"/>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="157"/>
-      <c r="AV7" s="157"/>
-      <c r="AW7" s="157"/>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="157"/>
-      <c r="BE7" s="157"/>
-      <c r="BF7" s="157"/>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="157"/>
-      <c r="BN7" s="157"/>
-      <c r="BO7" s="157"/>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="157"/>
-      <c r="BU7" s="157"/>
-      <c r="BV7" s="157"/>
-    </row>
-    <row r="8" spans="1:74" s="147" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="151" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="I8" s="151" t="s">
-        <v>569</v>
-      </c>
-      <c r="J8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="151" t="s">
-        <v>570</v>
-      </c>
-      <c r="N8" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="R8" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="S8" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="T8" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="U8" s="151" t="s">
-        <v>571</v>
-      </c>
-      <c r="V8" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="W8" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y8" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z8" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC8" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD8" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE8" s="151" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF8" s="151" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="157"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="157"/>
-      <c r="AP8" s="157"/>
-      <c r="AQ8" s="157"/>
-      <c r="AR8" s="157"/>
-      <c r="AS8" s="157"/>
-      <c r="AT8" s="157"/>
-      <c r="AU8" s="157"/>
-      <c r="AV8" s="157"/>
-      <c r="AW8" s="157"/>
-      <c r="AX8" s="157"/>
-      <c r="AY8" s="157"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
-      <c r="BC8" s="157"/>
-      <c r="BD8" s="157"/>
-      <c r="BE8" s="157"/>
-      <c r="BF8" s="157"/>
-      <c r="BG8" s="157"/>
-      <c r="BH8" s="157"/>
-      <c r="BI8" s="157"/>
-      <c r="BJ8" s="157"/>
-      <c r="BK8" s="157"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="157"/>
-      <c r="BN8" s="157"/>
-      <c r="BO8" s="157"/>
-      <c r="BP8" s="157"/>
-      <c r="BQ8" s="157"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="157"/>
-      <c r="BT8" s="157"/>
-      <c r="BU8" s="157"/>
-      <c r="BV8" s="157"/>
-    </row>
-    <row r="9" spans="1:74" s="147" customFormat="1">
-      <c r="B9" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>577</v>
-      </c>
-      <c r="H9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="151" t="s">
-        <v>578</v>
-      </c>
-      <c r="J9" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="151" t="s">
-        <v>575</v>
-      </c>
-      <c r="M9" s="151" t="s">
-        <v>576</v>
-      </c>
-      <c r="N9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="O9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="P9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="R9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="S9" s="151" t="s">
-        <v>361</v>
-      </c>
-      <c r="T9" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="U9" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="V9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="W9" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="X9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y9" s="151" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z9" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC9" s="151" t="s">
+      <c r="AF9" s="150" t="s">
         <v>579</v>
       </c>
-      <c r="AD9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE9" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF9" s="151" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="155"/>
-      <c r="AL9" s="155"/>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155"/>
-      <c r="AO9" s="155"/>
-      <c r="AP9" s="155"/>
-      <c r="AQ9" s="155"/>
-      <c r="AR9" s="155"/>
-      <c r="AS9" s="155"/>
-      <c r="AT9" s="155"/>
-      <c r="AU9" s="155"/>
-      <c r="AV9" s="155"/>
-      <c r="AW9" s="155"/>
-      <c r="AX9" s="155"/>
-      <c r="AY9" s="155"/>
-      <c r="AZ9" s="155"/>
-      <c r="BA9" s="155"/>
-      <c r="BB9" s="155"/>
-      <c r="BC9" s="155"/>
-      <c r="BD9" s="155"/>
-      <c r="BE9" s="155"/>
-      <c r="BF9" s="155"/>
-      <c r="BG9" s="155"/>
-      <c r="BH9" s="155"/>
-      <c r="BI9" s="155"/>
-      <c r="BJ9" s="155"/>
-      <c r="BK9" s="155"/>
-      <c r="BL9" s="155"/>
-      <c r="BM9" s="155"/>
-      <c r="BN9" s="155"/>
-      <c r="BO9" s="155"/>
-      <c r="BP9" s="155"/>
-      <c r="BQ9" s="155"/>
-      <c r="BR9" s="155"/>
-      <c r="BS9" s="155"/>
-      <c r="BT9" s="155"/>
-      <c r="BU9" s="155"/>
-      <c r="BV9" s="155"/>
-    </row>
-    <row r="10" spans="1:74" s="153" customFormat="1" ht="12"/>
-    <row r="11" spans="1:74" s="153" customFormat="1" ht="14.25">
-      <c r="A11" s="154" t="s">
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="154"/>
+      <c r="AN9" s="154"/>
+      <c r="AO9" s="154"/>
+      <c r="AP9" s="154"/>
+      <c r="AQ9" s="154"/>
+      <c r="AR9" s="154"/>
+      <c r="AS9" s="154"/>
+      <c r="AT9" s="154"/>
+      <c r="AU9" s="154"/>
+      <c r="AV9" s="154"/>
+      <c r="AW9" s="154"/>
+      <c r="AX9" s="154"/>
+      <c r="AY9" s="154"/>
+      <c r="AZ9" s="154"/>
+      <c r="BA9" s="154"/>
+      <c r="BB9" s="154"/>
+      <c r="BC9" s="154"/>
+      <c r="BD9" s="154"/>
+      <c r="BE9" s="154"/>
+      <c r="BF9" s="154"/>
+      <c r="BG9" s="154"/>
+      <c r="BH9" s="154"/>
+      <c r="BI9" s="154"/>
+      <c r="BJ9" s="154"/>
+      <c r="BK9" s="154"/>
+      <c r="BL9" s="154"/>
+      <c r="BM9" s="154"/>
+      <c r="BN9" s="154"/>
+      <c r="BO9" s="154"/>
+      <c r="BP9" s="154"/>
+      <c r="BQ9" s="154"/>
+      <c r="BR9" s="154"/>
+      <c r="BS9" s="154"/>
+      <c r="BT9" s="154"/>
+      <c r="BU9" s="154"/>
+      <c r="BV9" s="154"/>
+    </row>
+    <row r="10" spans="1:74" s="152" customFormat="1" ht="12"/>
+    <row r="11" spans="1:74" s="152" customFormat="1" ht="14.25">
+      <c r="A11" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="154" t="s">
         <v>374</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="155"/>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="155"/>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="155"/>
-      <c r="AP11" s="155"/>
-      <c r="AQ11" s="155"/>
-      <c r="AR11" s="155"/>
-      <c r="AS11" s="155"/>
-      <c r="AT11" s="155"/>
-      <c r="AU11" s="155"/>
-      <c r="AV11" s="155"/>
-      <c r="AW11" s="155"/>
-      <c r="AX11" s="155"/>
-      <c r="AY11" s="155"/>
-      <c r="AZ11" s="155"/>
-      <c r="BA11" s="155"/>
-      <c r="BB11" s="155"/>
-      <c r="BC11" s="155"/>
-      <c r="BD11" s="155"/>
-      <c r="BE11" s="155"/>
-      <c r="BF11" s="155"/>
-      <c r="BG11" s="155"/>
-      <c r="BH11" s="155"/>
-      <c r="BI11" s="155"/>
-      <c r="BJ11" s="155"/>
-      <c r="BK11" s="155"/>
-      <c r="BL11" s="155"/>
-      <c r="BM11" s="155"/>
-      <c r="BN11" s="155"/>
-      <c r="BO11" s="155"/>
-      <c r="BP11" s="155"/>
-      <c r="BQ11" s="155"/>
-      <c r="BR11" s="155"/>
-      <c r="BS11" s="155"/>
-      <c r="BT11" s="155"/>
-      <c r="BU11" s="155"/>
-      <c r="BV11" s="155"/>
-    </row>
-    <row r="12" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B12" s="156" t="s">
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="154"/>
+      <c r="AJ11" s="154"/>
+      <c r="AK11" s="154"/>
+      <c r="AL11" s="154"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
+      <c r="AQ11" s="154"/>
+      <c r="AR11" s="154"/>
+      <c r="AS11" s="154"/>
+      <c r="AT11" s="154"/>
+      <c r="AU11" s="154"/>
+      <c r="AV11" s="154"/>
+      <c r="AW11" s="154"/>
+      <c r="AX11" s="154"/>
+      <c r="AY11" s="154"/>
+      <c r="AZ11" s="154"/>
+      <c r="BA11" s="154"/>
+      <c r="BB11" s="154"/>
+      <c r="BC11" s="154"/>
+      <c r="BD11" s="154"/>
+      <c r="BE11" s="154"/>
+      <c r="BF11" s="154"/>
+      <c r="BG11" s="154"/>
+      <c r="BH11" s="154"/>
+      <c r="BI11" s="154"/>
+      <c r="BJ11" s="154"/>
+      <c r="BK11" s="154"/>
+      <c r="BL11" s="154"/>
+      <c r="BM11" s="154"/>
+      <c r="BN11" s="154"/>
+      <c r="BO11" s="154"/>
+      <c r="BP11" s="154"/>
+      <c r="BQ11" s="154"/>
+      <c r="BR11" s="154"/>
+      <c r="BS11" s="154"/>
+      <c r="BT11" s="154"/>
+      <c r="BU11" s="154"/>
+      <c r="BV11" s="154"/>
+    </row>
+    <row r="12" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B12" s="155" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B13" s="150" t="s">
+    <row r="13" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B13" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="148" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="148" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="153" customFormat="1" ht="12">
-      <c r="B14" s="151" t="s">
+    <row r="14" spans="1:74" s="152" customFormat="1" ht="12">
+      <c r="B14" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="151" t="s">
+      <c r="D14" s="150" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="147" customFormat="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="151" t="s">
+    <row r="15" spans="1:74" s="146" customFormat="1">
+      <c r="A15" s="156"/>
+      <c r="B15" s="150" t="s">
         <v>391</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="151" t="s">
+      <c r="D15" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="157"/>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="157"/>
-      <c r="AQ15" s="157"/>
-      <c r="AR15" s="157"/>
-      <c r="AS15" s="157"/>
-      <c r="AT15" s="157"/>
-      <c r="AU15" s="157"/>
-      <c r="AV15" s="157"/>
-      <c r="AW15" s="157"/>
-      <c r="AX15" s="157"/>
-      <c r="AY15" s="157"/>
-      <c r="AZ15" s="157"/>
-      <c r="BA15" s="157"/>
-      <c r="BB15" s="157"/>
-      <c r="BC15" s="157"/>
-      <c r="BD15" s="157"/>
-      <c r="BE15" s="157"/>
-      <c r="BF15" s="157"/>
-      <c r="BG15" s="157"/>
-      <c r="BH15" s="157"/>
-      <c r="BI15" s="157"/>
-      <c r="BJ15" s="157"/>
-      <c r="BK15" s="157"/>
-      <c r="BL15" s="157"/>
-      <c r="BM15" s="157"/>
-      <c r="BN15" s="157"/>
-      <c r="BO15" s="157"/>
-      <c r="BP15" s="157"/>
-      <c r="BQ15" s="157"/>
-      <c r="BR15" s="157"/>
-      <c r="BS15" s="157"/>
-      <c r="BT15" s="157"/>
-      <c r="BU15" s="157"/>
-      <c r="BV15" s="157"/>
-    </row>
-    <row r="16" spans="1:74" s="147" customFormat="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="151" t="s">
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="156"/>
+      <c r="AK15" s="156"/>
+      <c r="AL15" s="156"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
+      <c r="AQ15" s="156"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="156"/>
+      <c r="AT15" s="156"/>
+      <c r="AU15" s="156"/>
+      <c r="AV15" s="156"/>
+      <c r="AW15" s="156"/>
+      <c r="AX15" s="156"/>
+      <c r="AY15" s="156"/>
+      <c r="AZ15" s="156"/>
+      <c r="BA15" s="156"/>
+      <c r="BB15" s="156"/>
+      <c r="BC15" s="156"/>
+      <c r="BD15" s="156"/>
+      <c r="BE15" s="156"/>
+      <c r="BF15" s="156"/>
+      <c r="BG15" s="156"/>
+      <c r="BH15" s="156"/>
+      <c r="BI15" s="156"/>
+      <c r="BJ15" s="156"/>
+      <c r="BK15" s="156"/>
+      <c r="BL15" s="156"/>
+      <c r="BM15" s="156"/>
+      <c r="BN15" s="156"/>
+      <c r="BO15" s="156"/>
+      <c r="BP15" s="156"/>
+      <c r="BQ15" s="156"/>
+      <c r="BR15" s="156"/>
+      <c r="BS15" s="156"/>
+      <c r="BT15" s="156"/>
+      <c r="BU15" s="156"/>
+      <c r="BV15" s="156"/>
+    </row>
+    <row r="16" spans="1:74" s="146" customFormat="1">
+      <c r="A16" s="156"/>
+      <c r="B16" s="150" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="150" t="s">
         <v>392</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="157"/>
-      <c r="AQ16" s="157"/>
-      <c r="AR16" s="157"/>
-      <c r="AS16" s="157"/>
-      <c r="AT16" s="157"/>
-      <c r="AU16" s="157"/>
-      <c r="AV16" s="157"/>
-      <c r="AW16" s="157"/>
-      <c r="AX16" s="157"/>
-      <c r="AY16" s="157"/>
-      <c r="AZ16" s="157"/>
-      <c r="BA16" s="157"/>
-      <c r="BB16" s="157"/>
-      <c r="BC16" s="157"/>
-      <c r="BD16" s="157"/>
-      <c r="BE16" s="157"/>
-      <c r="BF16" s="157"/>
-      <c r="BG16" s="157"/>
-      <c r="BH16" s="157"/>
-      <c r="BI16" s="157"/>
-      <c r="BJ16" s="157"/>
-      <c r="BK16" s="157"/>
-      <c r="BL16" s="157"/>
-      <c r="BM16" s="157"/>
-      <c r="BN16" s="157"/>
-      <c r="BO16" s="157"/>
-      <c r="BP16" s="157"/>
-      <c r="BQ16" s="157"/>
-      <c r="BR16" s="157"/>
-      <c r="BS16" s="157"/>
-      <c r="BT16" s="157"/>
-      <c r="BU16" s="157"/>
-      <c r="BV16" s="157"/>
-    </row>
-    <row r="17" s="147" customFormat="1"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="156"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
+      <c r="AQ16" s="156"/>
+      <c r="AR16" s="156"/>
+      <c r="AS16" s="156"/>
+      <c r="AT16" s="156"/>
+      <c r="AU16" s="156"/>
+      <c r="AV16" s="156"/>
+      <c r="AW16" s="156"/>
+      <c r="AX16" s="156"/>
+      <c r="AY16" s="156"/>
+      <c r="AZ16" s="156"/>
+      <c r="BA16" s="156"/>
+      <c r="BB16" s="156"/>
+      <c r="BC16" s="156"/>
+      <c r="BD16" s="156"/>
+      <c r="BE16" s="156"/>
+      <c r="BF16" s="156"/>
+      <c r="BG16" s="156"/>
+      <c r="BH16" s="156"/>
+      <c r="BI16" s="156"/>
+      <c r="BJ16" s="156"/>
+      <c r="BK16" s="156"/>
+      <c r="BL16" s="156"/>
+      <c r="BM16" s="156"/>
+      <c r="BN16" s="156"/>
+      <c r="BO16" s="156"/>
+      <c r="BP16" s="156"/>
+      <c r="BQ16" s="156"/>
+      <c r="BR16" s="156"/>
+      <c r="BS16" s="156"/>
+      <c r="BT16" s="156"/>
+      <c r="BU16" s="156"/>
+      <c r="BV16" s="156"/>
+    </row>
+    <row r="17" s="146" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16802,7 +16795,7 @@
         <v>315</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>290</v>
@@ -16846,7 +16839,7 @@
         <v>318</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>296</v>
@@ -17130,8 +17123,8 @@
       <c r="A34" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="147" t="s">
-        <v>600</v>
+      <c r="B34" s="146" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:7">
